--- a/NLS/Immigration Dictionary.xlsx
+++ b/NLS/Immigration Dictionary.xlsx
@@ -790,37 +790,7 @@
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="3">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -2408,7 +2378,7 @@
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2581,7 +2551,7 @@
     <mergeCell ref="G2:H2"/>
   </mergeCells>
   <conditionalFormatting sqref="D4:D8 F4:F8 H4:H8">
-    <cfRule type="cellIs" dxfId="0" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="&lt;0.001">
@@ -2589,7 +2559,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F5">
-    <cfRule type="containsText" dxfId="4" priority="2" operator="containsText" text="&lt;0.001">
+    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="&lt;0.001">
       <formula>NOT(ISERROR(SEARCH("&lt;0.001",F5)))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/NLS/Immigration Dictionary.xlsx
+++ b/NLS/Immigration Dictionary.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2d474aaa2186e9c7/CSU Classes/Consulting/NLS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="453" documentId="14_{FDBBC5D5-DD1B-4078-B5B4-1BF14B832747}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{734160D1-859C-4048-BE67-8AB94D9E4B06}"/>
+  <xr:revisionPtr revIDLastSave="688" documentId="14_{FDBBC5D5-DD1B-4078-B5B4-1BF14B832747}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{D3D56DF7-156D-4C24-9C71-534C95AF8560}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{2096B911-1958-45C3-8B1A-4C0F362183A1}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{2096B911-1958-45C3-8B1A-4C0F362183A1}"/>
   </bookViews>
   <sheets>
     <sheet name="Dictionary" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,8 @@
     <sheet name="Latents" sheetId="4" r:id="rId3"/>
     <sheet name="SEM" sheetId="3" r:id="rId4"/>
     <sheet name="Logistic Regression" sheetId="6" r:id="rId5"/>
+    <sheet name="RandomForest" sheetId="7" r:id="rId6"/>
+    <sheet name="DNN" sheetId="8" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="158">
   <si>
     <t>Variable name</t>
   </si>
@@ -474,6 +476,45 @@
   </si>
   <si>
     <t>IncomeChange2030~</t>
+  </si>
+  <si>
+    <t>p-value &lt;0.001</t>
+  </si>
+  <si>
+    <t>Table 5: Random Forest Results</t>
+  </si>
+  <si>
+    <t>Gini Impurity</t>
+  </si>
+  <si>
+    <t>TRAUMA</t>
+  </si>
+  <si>
+    <t>VictViolentCrime Homeless HHHospital HHJail</t>
+  </si>
+  <si>
+    <t>Maximum Test Accuracy</t>
+  </si>
+  <si>
+    <t>DELINQUENCY</t>
+  </si>
+  <si>
+    <t>VictViolentCrime</t>
+  </si>
+  <si>
+    <t>Homeless</t>
+  </si>
+  <si>
+    <t>HHHospital</t>
+  </si>
+  <si>
+    <t>HHJail</t>
+  </si>
+  <si>
+    <t>R-square - 9.63%</t>
+  </si>
+  <si>
+    <t>R-square 6.89%</t>
   </si>
 </sst>
 </file>
@@ -681,7 +722,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -740,6 +781,8 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -790,7 +833,157 @@
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="18">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -832,6 +1025,297 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2FCFD8C5-F85A-4669-95E6-A82283FB9C6F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6697980" y="3131820"/>
+          <a:ext cx="7315200" cy="7543800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>182880</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>472440</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="TextBox 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E03184C6-702B-4EF3-BDD8-6A5FC0EB0841}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4427220" y="4930140"/>
+          <a:ext cx="2118360" cy="792480"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Black</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> = Odds Ratio</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>Red and Orange = Std. All</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>Latent to Response = Odds Ratio</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>47624</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>38101</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>118435</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>114301</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6972C433-96B9-4FDC-84A0-1A5515409BF7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13973174" y="3276601"/>
+          <a:ext cx="6166811" cy="5600700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>54116</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F8F2506-F92E-45EC-94AF-527A9A9DC6C1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="28575" y="2800350"/>
+          <a:ext cx="7067550" cy="7540766"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>91439</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>23644</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B7D1EE26-EC26-487B-B987-CF3D6F7C1A7A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7231380" y="2651759"/>
+          <a:ext cx="8496300" cy="7430285"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1133,32 +1617,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{920464C5-DCD3-4FFB-8D80-CA80DEE31D7B}">
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="37" customWidth="1"/>
-    <col min="2" max="2" width="23.42578125" customWidth="1"/>
-    <col min="3" max="3" width="3.7109375" customWidth="1"/>
-    <col min="4" max="4" width="33.42578125" customWidth="1"/>
-    <col min="5" max="5" width="31.140625" customWidth="1"/>
-    <col min="6" max="6" width="24.85546875" customWidth="1"/>
+    <col min="2" max="2" width="23.44140625" customWidth="1"/>
+    <col min="3" max="3" width="3.6640625" customWidth="1"/>
+    <col min="4" max="4" width="33.44140625" customWidth="1"/>
+    <col min="5" max="5" width="31.109375" customWidth="1"/>
+    <col min="6" max="6" width="24.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A1" s="27" t="s">
+    <row r="1" spans="1:6" ht="15" thickBot="1">
+      <c r="A1" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="D1" s="28" t="s">
+      <c r="B1" s="29"/>
+      <c r="D1" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-    </row>
-    <row r="2" spans="1:6" ht="15.75" thickBot="1">
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+    </row>
+    <row r="2" spans="1:6" ht="15" thickBot="1">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1176,16 +1660,16 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="29" t="s">
+      <c r="A3" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="30"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="31"/>
-    </row>
-    <row r="4" spans="1:6" ht="30">
+      <c r="B3" s="32"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="33"/>
+    </row>
+    <row r="4" spans="1:6" ht="28.8">
       <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
@@ -1224,7 +1708,7 @@
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
     </row>
-    <row r="7" spans="1:6" ht="30">
+    <row r="7" spans="1:6" ht="28.8">
       <c r="A7" s="5" t="s">
         <v>7</v>
       </c>
@@ -1244,7 +1728,7 @@
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
     </row>
-    <row r="9" spans="1:6" ht="30">
+    <row r="9" spans="1:6" ht="28.8">
       <c r="A9" s="4" t="s">
         <v>84</v>
       </c>
@@ -1266,7 +1750,7 @@
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
     </row>
-    <row r="11" spans="1:6" ht="45">
+    <row r="11" spans="1:6" ht="43.2">
       <c r="A11" s="9" t="s">
         <v>88</v>
       </c>
@@ -1277,7 +1761,7 @@
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
     </row>
-    <row r="12" spans="1:6" ht="120">
+    <row r="12" spans="1:6" ht="115.2">
       <c r="A12" s="9" t="s">
         <v>90</v>
       </c>
@@ -1299,7 +1783,7 @@
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
     </row>
-    <row r="14" spans="1:6" ht="30">
+    <row r="14" spans="1:6" ht="28.8">
       <c r="A14" s="4" t="s">
         <v>84</v>
       </c>
@@ -1311,16 +1795,16 @@
       <c r="F14" s="4"/>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="29" t="s">
+      <c r="A15" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="B15" s="30"/>
-      <c r="C15" s="30"/>
-      <c r="D15" s="30"/>
-      <c r="E15" s="30"/>
-      <c r="F15" s="31"/>
-    </row>
-    <row r="16" spans="1:6" ht="30">
+      <c r="B15" s="32"/>
+      <c r="C15" s="32"/>
+      <c r="D15" s="32"/>
+      <c r="E15" s="32"/>
+      <c r="F15" s="33"/>
+    </row>
+    <row r="16" spans="1:6" ht="28.8">
       <c r="A16" s="4" t="s">
         <v>9</v>
       </c>
@@ -1333,7 +1817,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="30">
+    <row r="17" spans="1:6" ht="28.8">
       <c r="A17" s="4" t="s">
         <v>10</v>
       </c>
@@ -1376,7 +1860,7 @@
       </c>
       <c r="F19" s="4"/>
     </row>
-    <row r="20" spans="1:6" ht="45">
+    <row r="20" spans="1:6" ht="43.2">
       <c r="A20" s="4" t="s">
         <v>13</v>
       </c>
@@ -1460,7 +1944,7 @@
       </c>
       <c r="F25" s="4"/>
     </row>
-    <row r="26" spans="1:6" ht="75">
+    <row r="26" spans="1:6" ht="72">
       <c r="A26" s="5" t="s">
         <v>17</v>
       </c>
@@ -1476,14 +1960,14 @@
       </c>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="29" t="s">
+      <c r="A27" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="B27" s="30"/>
-      <c r="C27" s="30"/>
-      <c r="D27" s="30"/>
-      <c r="E27" s="30"/>
-      <c r="F27" s="31"/>
+      <c r="B27" s="32"/>
+      <c r="C27" s="32"/>
+      <c r="D27" s="32"/>
+      <c r="E27" s="32"/>
+      <c r="F27" s="33"/>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="8" t="s">
@@ -1502,25 +1986,25 @@
         <v>33</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="90">
+    <row r="29" spans="1:6" ht="86.4">
       <c r="D29" s="4" t="s">
         <v>34</v>
       </c>
       <c r="E29" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="F29" s="26" t="s">
+      <c r="F29" s="28" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="30">
+    <row r="30" spans="1:6" ht="28.8">
       <c r="D30" s="4" t="s">
         <v>35</v>
       </c>
       <c r="E30" s="4"/>
-      <c r="F30" s="26"/>
-    </row>
-    <row r="31" spans="1:6" ht="30">
+      <c r="F30" s="28"/>
+    </row>
+    <row r="31" spans="1:6" ht="28.8">
       <c r="D31" s="4" t="s">
         <v>37</v>
       </c>
@@ -1531,7 +2015,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="30">
+    <row r="32" spans="1:6" ht="28.8">
       <c r="D32" s="4" t="s">
         <v>38</v>
       </c>
@@ -1542,7 +2026,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="33" spans="4:6" ht="30">
+    <row r="33" spans="4:6" ht="28.8">
       <c r="D33" s="4" t="s">
         <v>39</v>
       </c>
@@ -1553,7 +2037,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="34" spans="4:6" ht="30">
+    <row r="34" spans="4:6" ht="28.8">
       <c r="D34" s="4" t="s">
         <v>41</v>
       </c>
@@ -1564,7 +2048,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="35" spans="4:6" ht="30">
+    <row r="35" spans="4:6">
       <c r="D35" s="4" t="s">
         <v>43</v>
       </c>
@@ -1575,7 +2059,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="36" spans="4:6" ht="30">
+    <row r="36" spans="4:6" ht="28.8">
       <c r="D36" s="4" t="s">
         <v>45</v>
       </c>
@@ -1595,7 +2079,7 @@
       </c>
       <c r="F37" s="4"/>
     </row>
-    <row r="38" spans="4:6" ht="28.5">
+    <row r="38" spans="4:6" ht="27.6">
       <c r="D38" s="6" t="s">
         <v>85</v>
       </c>
@@ -1624,16 +2108,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE375654-8A33-4171-B7F2-45BB81BA18E9}">
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -1746,11 +2232,11 @@
       <c r="F7" s="11"/>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="32" t="s">
+      <c r="A8" s="34" t="s">
         <v>101</v>
       </c>
-      <c r="B8" s="32"/>
-      <c r="C8" s="32"/>
+      <c r="B8" s="34"/>
+      <c r="C8" s="34"/>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="12" t="s">
@@ -1823,12 +2309,12 @@
       </c>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="32" t="s">
+      <c r="A15" s="34" t="s">
         <v>125</v>
       </c>
-      <c r="B15" s="32"/>
-      <c r="C15" s="32"/>
-      <c r="D15" s="32"/>
+      <c r="B15" s="34"/>
+      <c r="C15" s="34"/>
+      <c r="D15" s="34"/>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" t="s">
@@ -1864,16 +2350,16 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{238DECEC-9B7C-4321-818D-6FCB20D4FD66}">
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1882,10 +2368,10 @@
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="34" t="s">
         <v>113</v>
       </c>
-      <c r="B2" s="32"/>
+      <c r="B2" s="34"/>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="18" t="s">
@@ -1893,27 +2379,27 @@
       </c>
       <c r="B3" s="18"/>
     </row>
-    <row r="6" spans="1:7" ht="15.75">
-      <c r="A6" s="33" t="s">
+    <row r="6" spans="1:7" ht="15.6">
+      <c r="A6" s="35" t="s">
         <v>111</v>
       </c>
-      <c r="B6" s="33"/>
-      <c r="C6" s="33"/>
-      <c r="D6" s="33"/>
-      <c r="E6" s="33"/>
+      <c r="B6" s="35"/>
+      <c r="C6" s="35"/>
+      <c r="D6" s="35"/>
+      <c r="E6" s="35"/>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="19" t="s">
         <v>115</v>
       </c>
-      <c r="B7" s="34" t="s">
+      <c r="B7" s="36" t="s">
         <v>121</v>
       </c>
-      <c r="C7" s="34"/>
-      <c r="D7" s="34"/>
-      <c r="E7" s="34"/>
-      <c r="F7" s="34"/>
-      <c r="G7" s="34"/>
+      <c r="C7" s="36"/>
+      <c r="D7" s="36"/>
+      <c r="E7" s="36"/>
+      <c r="F7" s="36"/>
+      <c r="G7" s="36"/>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="19" t="s">
@@ -1955,14 +2441,14 @@
         <v>122</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="15.75">
-      <c r="A14" s="35" t="s">
+    <row r="14" spans="1:7" ht="15.6">
+      <c r="A14" s="37" t="s">
         <v>132</v>
       </c>
-      <c r="B14" s="35"/>
-      <c r="C14" s="35"/>
-      <c r="D14" s="35"/>
-      <c r="E14" s="35"/>
+      <c r="B14" s="37"/>
+      <c r="C14" s="37"/>
+      <c r="D14" s="37"/>
+      <c r="E14" s="37"/>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="19" t="s">
@@ -1980,7 +2466,7 @@
         <v>8966</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:5">
       <c r="A17" s="19" t="s">
         <v>117</v>
       </c>
@@ -1988,7 +2474,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:5">
       <c r="A18" s="19" t="s">
         <v>118</v>
       </c>
@@ -1996,7 +2482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:5">
       <c r="A19" s="19" t="s">
         <v>119</v>
       </c>
@@ -2004,7 +2490,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:5">
       <c r="A20" s="19" t="s">
         <v>120</v>
       </c>
@@ -2012,12 +2498,70 @@
         <v>135</v>
       </c>
     </row>
+    <row r="22" spans="1:5" ht="15.6">
+      <c r="A22" s="37" t="s">
+        <v>148</v>
+      </c>
+      <c r="B22" s="37"/>
+      <c r="C22" s="37"/>
+      <c r="D22" s="37"/>
+      <c r="E22" s="37"/>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="B23" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="B24">
+        <v>7861</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="B25">
+        <v>0.79700000000000004</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="B26">
+        <v>2.5999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="B28" t="s">
+        <v>135</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A6:E6"/>
     <mergeCell ref="B7:G7"/>
     <mergeCell ref="A14:E14"/>
+    <mergeCell ref="A22:E22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2025,46 +2569,46 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{604F6D97-F180-46B6-B049-574DD2A9AE37}">
-  <dimension ref="A1:I26"/>
+  <dimension ref="A1:I32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="22.28515625" customWidth="1"/>
-    <col min="3" max="3" width="12.85546875" customWidth="1"/>
-    <col min="16382" max="16384" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.33203125" customWidth="1"/>
+    <col min="3" max="3" width="12.88671875" customWidth="1"/>
+    <col min="16382" max="16384" width="8.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="39" t="s">
         <v>140</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
       <c r="E1" s="13"/>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="13"/>
       <c r="B2" s="14"/>
-      <c r="C2" s="39" t="s">
+      <c r="C2" s="41" t="s">
         <v>102</v>
       </c>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="36" t="s">
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="38" t="s">
         <v>103</v>
       </c>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36" t="s">
+      <c r="G2" s="38"/>
+      <c r="H2" s="38" t="s">
         <v>104</v>
       </c>
-      <c r="I2" s="36"/>
-    </row>
-    <row r="3" spans="1:9" ht="30">
+      <c r="I2" s="38"/>
+    </row>
+    <row r="3" spans="1:9" ht="28.8">
       <c r="A3" s="20" t="s">
         <v>105</v>
       </c>
@@ -2358,8 +2902,94 @@
       <c r="D25" s="16"/>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="16"/>
+      <c r="A26" s="17" t="s">
+        <v>136</v>
+      </c>
       <c r="D26" s="16"/>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" s="16" t="s">
+        <v>148</v>
+      </c>
+      <c r="C27">
+        <v>-0.255</v>
+      </c>
+      <c r="D27" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="E27">
+        <v>0.90300000000000002</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" s="16" t="s">
+        <v>151</v>
+      </c>
+      <c r="C28">
+        <v>-5.3999999999999999E-2</v>
+      </c>
+      <c r="D28" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="E28">
+        <v>0.97899999999999998</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="C29">
+        <v>-3.3000000000000002E-2</v>
+      </c>
+      <c r="D29">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="E29">
+        <v>0.998</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="C30">
+        <v>-0.159</v>
+      </c>
+      <c r="D30" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="E30">
+        <v>0.998</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="C31">
+        <v>-8.4000000000000005E-2</v>
+      </c>
+      <c r="D31" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="E31">
+        <v>0.92700000000000005</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C32">
+        <v>5.7000000000000002E-2</v>
+      </c>
+      <c r="D32" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="E32">
+        <v>1.0469999999999999</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -2368,29 +2998,38 @@
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="C2:E2"/>
   </mergeCells>
+  <conditionalFormatting sqref="D27:D32 D22:D24 D16:D19 D10:D13 D5:D7 G22:G24 I22:I24">
+    <cfRule type="containsText" dxfId="17" priority="1" operator="containsText" text="&lt;0.001">
+      <formula>NOT(ISERROR(SEARCH("&lt;0.001",D5)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="16" priority="2" operator="lessThan">
+      <formula>0.05</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8743118-3A32-47C7-84AD-45E2B14B31EA}">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="29.7109375" customWidth="1"/>
-    <col min="2" max="2" width="5.7109375" customWidth="1"/>
-    <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.6640625" customWidth="1"/>
+    <col min="3" max="3" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -2401,21 +3040,21 @@
       <c r="C1" s="25"/>
       <c r="D1" s="25"/>
     </row>
-    <row r="2" spans="1:8" ht="22.15" customHeight="1">
-      <c r="C2" s="40" t="s">
+    <row r="2" spans="1:8" ht="22.2" customHeight="1">
+      <c r="C2" s="42" t="s">
         <v>102</v>
       </c>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40" t="s">
+      <c r="D2" s="42"/>
+      <c r="E2" s="42" t="s">
         <v>103</v>
       </c>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40" t="s">
+      <c r="F2" s="42"/>
+      <c r="G2" s="42" t="s">
         <v>104</v>
       </c>
-      <c r="H2" s="40"/>
-    </row>
-    <row r="3" spans="1:8" ht="22.15" customHeight="1">
+      <c r="H2" s="42"/>
+    </row>
+    <row r="3" spans="1:8" ht="22.2" customHeight="1">
       <c r="A3" s="17" t="s">
         <v>136</v>
       </c>
@@ -2442,13 +3081,13 @@
       <c r="A4" s="24" t="s">
         <v>143</v>
       </c>
-      <c r="D4" t="s">
-        <v>110</v>
-      </c>
-      <c r="F4" t="s">
-        <v>110</v>
-      </c>
-      <c r="H4" t="s">
+      <c r="D4" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="F4" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="H4" s="16" t="s">
         <v>110</v>
       </c>
     </row>
@@ -2459,19 +3098,19 @@
       <c r="C5">
         <v>0.72640000000000005</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="16" t="s">
         <v>110</v>
       </c>
       <c r="E5">
         <v>0.72519999999999996</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="16">
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="G5">
         <v>0.7238</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="16">
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
@@ -2482,19 +3121,19 @@
       <c r="C6">
         <v>0.97140000000000004</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="16" t="s">
         <v>110</v>
       </c>
       <c r="E6">
         <v>0.95279999999999998</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="16" t="s">
         <v>110</v>
       </c>
       <c r="G6">
         <v>0.97789999999999999</v>
       </c>
-      <c r="H6" t="s">
+      <c r="H6" s="16" t="s">
         <v>110</v>
       </c>
     </row>
@@ -2505,19 +3144,19 @@
       <c r="C7">
         <v>0.68659999999999999</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="16" t="s">
         <v>110</v>
       </c>
       <c r="E7">
         <v>0.85040000000000004</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="16">
         <v>9.6000000000000002E-2</v>
       </c>
       <c r="G7">
         <v>0.5806</v>
       </c>
-      <c r="H7" t="s">
+      <c r="H7" s="16" t="s">
         <v>110</v>
       </c>
     </row>
@@ -2528,19 +3167,230 @@
       <c r="C8">
         <v>0.76480000000000004</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="16" t="s">
         <v>110</v>
       </c>
       <c r="E8">
         <v>0.78800000000000003</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" s="16" t="s">
         <v>110</v>
       </c>
       <c r="G8">
         <v>0.75280000000000002</v>
       </c>
-      <c r="H8" t="s">
+      <c r="H8" s="16" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="D9" s="16"/>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="17" t="s">
+        <v>136</v>
+      </c>
+      <c r="C10" t="s">
+        <v>145</v>
+      </c>
+      <c r="D10" s="16"/>
+      <c r="E10" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="16" t="s">
+        <v>143</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12">
+        <v>0.75260000000000005</v>
+      </c>
+      <c r="D12" s="16">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13">
+        <v>0.96519999999999995</v>
+      </c>
+      <c r="D13" s="16" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="C14">
+        <v>0.71250000000000002</v>
+      </c>
+      <c r="D14" s="16" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="C15">
+        <v>0.76700000000000002</v>
+      </c>
+      <c r="D15" s="16" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16">
+        <v>1.3282</v>
+      </c>
+      <c r="D16" s="16" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="D17" s="16"/>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="17" t="s">
+        <v>136</v>
+      </c>
+      <c r="C18" t="s">
+        <v>145</v>
+      </c>
+      <c r="D18" s="16"/>
+      <c r="E18" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="16" t="s">
+        <v>143</v>
+      </c>
+      <c r="D19" s="16" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="C20">
+        <v>0.75429999999999997</v>
+      </c>
+      <c r="D20" s="16">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21">
+        <v>0.97709999999999997</v>
+      </c>
+      <c r="D21" s="16" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="C22">
+        <v>0.62709999999999999</v>
+      </c>
+      <c r="D22" s="16" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="C23">
+        <v>0.72209999999999996</v>
+      </c>
+      <c r="D23" s="16" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C24">
+        <v>1.3283</v>
+      </c>
+      <c r="D24" s="16" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="16" t="s">
+        <v>152</v>
+      </c>
+      <c r="C25">
+        <v>0.98329999999999995</v>
+      </c>
+      <c r="D25" s="16">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="16" t="s">
+        <v>153</v>
+      </c>
+      <c r="C26">
+        <v>0.2974</v>
+      </c>
+      <c r="D26" s="16" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="16" t="s">
+        <v>154</v>
+      </c>
+      <c r="C27">
+        <v>0.93340000000000001</v>
+      </c>
+      <c r="D27" s="16">
+        <v>0.39900000000000002</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="16" t="s">
+        <v>155</v>
+      </c>
+      <c r="C28">
+        <v>0.56369999999999998</v>
+      </c>
+      <c r="D28" s="16" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C29">
+        <v>0.4803</v>
+      </c>
+      <c r="D29" s="16" t="s">
         <v>110</v>
       </c>
     </row>
@@ -2551,18 +3401,220 @@
     <mergeCell ref="G2:H2"/>
   </mergeCells>
   <conditionalFormatting sqref="D4:D8 F4:F8 H4:H8">
+    <cfRule type="containsText" dxfId="15" priority="14" operator="containsText" text="&lt;0.001">
+      <formula>NOT(ISERROR(SEARCH("&lt;0.001",D4)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="14" priority="16" operator="lessThan">
+      <formula>0.05</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F5">
+    <cfRule type="containsText" dxfId="13" priority="15" operator="containsText" text="&lt;0.001">
+      <formula>NOT(ISERROR(SEARCH("&lt;0.001",F5)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D11">
+    <cfRule type="containsText" dxfId="12" priority="12" operator="containsText" text="&lt;0.001">
+      <formula>NOT(ISERROR(SEARCH("&lt;0.001",D11)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="13" operator="lessThan">
+      <formula>0.05</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D13">
+    <cfRule type="containsText" dxfId="10" priority="10" operator="containsText" text="&lt;0.001">
+      <formula>NOT(ISERROR(SEARCH("&lt;0.001",D13)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="11" operator="lessThan">
+      <formula>0.05</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D14">
+    <cfRule type="containsText" dxfId="8" priority="8" operator="containsText" text="&lt;0.001">
+      <formula>NOT(ISERROR(SEARCH("&lt;0.001",D14)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="9" operator="lessThan">
+      <formula>0.05</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D15">
+    <cfRule type="containsText" dxfId="6" priority="6" operator="containsText" text="&lt;0.001">
+      <formula>NOT(ISERROR(SEARCH("&lt;0.001",D15)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="7" operator="lessThan">
+      <formula>0.05</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D16">
+    <cfRule type="containsText" dxfId="4" priority="4" operator="containsText" text="&lt;0.001">
+      <formula>NOT(ISERROR(SEARCH("&lt;0.001",D16)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="5" operator="lessThan">
+      <formula>0.05</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D12">
     <cfRule type="cellIs" dxfId="2" priority="3" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="&lt;0.001">
-      <formula>NOT(ISERROR(SEARCH("&lt;0.001",D4)))</formula>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D19:D29">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="lessThan">
+      <formula>0.05</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F5">
-    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="&lt;0.001">
-      <formula>NOT(ISERROR(SEARCH("&lt;0.001",F5)))</formula>
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="&lt;0.001">
+      <formula>NOT(ISERROR(SEARCH("&lt;0.001",D19)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{062C27E3-330B-4BAF-8F05-331C962A113B}">
+  <dimension ref="A1:D13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="29" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="25" t="s">
+        <v>146</v>
+      </c>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="C2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="26" t="s">
+        <v>136</v>
+      </c>
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4">
+        <v>0.43608000000000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="C5">
+        <v>0.17945</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="16" t="s">
+        <v>155</v>
+      </c>
+      <c r="C6">
+        <v>0.12470000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="16" t="s">
+        <v>153</v>
+      </c>
+      <c r="C7">
+        <v>0.11394</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8">
+        <v>6.3729999999999995E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="16" t="s">
+        <v>152</v>
+      </c>
+      <c r="C9">
+        <v>4.5780000000000001E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10">
+        <v>1.366E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="16" t="s">
+        <v>154</v>
+      </c>
+      <c r="C11">
+        <v>1.1209999999999999E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="C12">
+        <v>1.0699999999999999E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13">
+        <v>7.5000000000000002E-4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8CD3918-A8EF-41BB-9A73-F3B733D8D651}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="22.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="27">
+        <v>0.79020000000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/NLS/Immigration Dictionary.xlsx
+++ b/NLS/Immigration Dictionary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2d474aaa2186e9c7/CSU Classes/Consulting/NLS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="688" documentId="14_{FDBBC5D5-DD1B-4078-B5B4-1BF14B832747}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{D3D56DF7-156D-4C24-9C71-534C95AF8560}"/>
+  <xr:revisionPtr revIDLastSave="824" documentId="14_{FDBBC5D5-DD1B-4078-B5B4-1BF14B832747}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{17CF88ED-342F-4815-A55C-5EB8F7EADF28}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{2096B911-1958-45C3-8B1A-4C0F362183A1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{2096B911-1958-45C3-8B1A-4C0F362183A1}"/>
   </bookViews>
   <sheets>
     <sheet name="Dictionary" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="165">
   <si>
     <t>Variable name</t>
   </si>
@@ -442,9 +442,6 @@
     <t>EDUTROUBLE</t>
   </si>
   <si>
-    <t>days_hs_suspension days_ms_suspension hs_grad</t>
-  </si>
-  <si>
     <t>NA</t>
   </si>
   <si>
@@ -515,6 +512,30 @@
   </si>
   <si>
     <t>R-square 6.89%</t>
+  </si>
+  <si>
+    <t>days_hs_suspension days_ms_suspension</t>
+  </si>
+  <si>
+    <t>HS_grad is associated with ever smoke and ever arrested</t>
+  </si>
+  <si>
+    <t>ever_in_gang EverSmoke EverArrested</t>
+  </si>
+  <si>
+    <t>Predicted</t>
+  </si>
+  <si>
+    <t>Actual</t>
+  </si>
+  <si>
+    <t>Graduate</t>
+  </si>
+  <si>
+    <t>Non-Grad</t>
+  </si>
+  <si>
+    <t>file:///C:/Users/miqui/OneDrive/CSU%20Classes/Consulting/NLS/test.html</t>
   </si>
 </sst>
 </file>
@@ -722,7 +743,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -783,6 +804,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -805,13 +829,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -828,12 +852,55 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="18">
+  <dxfs count="22">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -1031,23 +1098,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>15240</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>22860</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>15240</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>68580</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>54116</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2FCFD8C5-F85A-4669-95E6-A82283FB9C6F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DC7B0937-8895-4AD9-A323-CF48B3D589FC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1056,7 +1123,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1069,8 +1136,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6697980" y="3131820"/>
-          <a:ext cx="7315200" cy="7543800"/>
+          <a:off x="5200650" y="0"/>
+          <a:ext cx="7772400" cy="7483616"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1079,6 +1146,11 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
@@ -1169,15 +1241,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>47624</xdr:colOff>
+      <xdr:colOff>9524</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>38101</xdr:rowOff>
+      <xdr:rowOff>47626</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>31</xdr:col>
-      <xdr:colOff>118435</xdr:colOff>
+      <xdr:colOff>80335</xdr:colOff>
       <xdr:row>45</xdr:row>
-      <xdr:rowOff>114301</xdr:rowOff>
+      <xdr:rowOff>123826</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1193,6 +1265,50 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13935074" y="3286126"/>
+          <a:ext cx="6166811" cy="5600700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>351301</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>85081</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD252B2F-DB66-4038-B001-FB3FCC692D64}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
@@ -1200,8 +1316,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13973174" y="3276601"/>
-          <a:ext cx="6166811" cy="5600700"/>
+          <a:off x="4676775" y="5981700"/>
+          <a:ext cx="8990476" cy="5152381"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1213,20 +1329,75 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1066800</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>502920</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>36433</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE8B8203-323E-4408-A0CB-96F19A4B2098}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5013960" y="1851660"/>
+          <a:ext cx="7772400" cy="4052173"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:rowOff>182880</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
+      <xdr:colOff>15240</xdr:colOff>
       <xdr:row>54</xdr:row>
-      <xdr:rowOff>54116</xdr:rowOff>
+      <xdr:rowOff>96026</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1255,8 +1426,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="28575" y="2800350"/>
-          <a:ext cx="7067550" cy="7540766"/>
+          <a:off x="0" y="2849880"/>
+          <a:ext cx="7054215" cy="7533146"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1265,25 +1436,532 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2" name="TextBox 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9BE2A114-064F-42DD-A891-22E75950461C}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4069080" y="182880"/>
+              <a:ext cx="4267200" cy="2186940"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:ln w="9525" cmpd="sng">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:shade val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="1"/>
+                <a:t>What</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="1" baseline="0"/>
+                <a:t> is GINI Impurity:</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100"/>
+                <a:t>How often will a randomly</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" baseline="0"/>
+                <a:t> chosen element from the set be incorrectly labelled?</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:nary>
+                      <m:naryPr>
+                        <m:chr m:val="∑"/>
+                        <m:limLoc m:val="undOvr"/>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" sz="1100" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="dk1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:naryPr>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="dk1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝑖</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="dk1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>=1</m:t>
+                        </m:r>
+                      </m:sub>
+                      <m:sup>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="dk1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝐶</m:t>
+                        </m:r>
+                      </m:sup>
+                      <m:e>
+                        <m:sSub>
+                          <m:sSubPr>
+                            <m:ctrlPr>
+                              <a:rPr lang="en-US" sz="1100" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="dk1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:sSubPr>
+                          <m:e>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1100" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="dk1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>𝑓</m:t>
+                            </m:r>
+                          </m:e>
+                          <m:sub>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1100" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="dk1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>𝑖</m:t>
+                            </m:r>
+                          </m:sub>
+                        </m:sSub>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="dk1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>(1−</m:t>
+                        </m:r>
+                        <m:sSub>
+                          <m:sSubPr>
+                            <m:ctrlPr>
+                              <a:rPr lang="en-US" sz="1100" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="dk1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:sSubPr>
+                          <m:e>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1100" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="dk1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>𝑓</m:t>
+                            </m:r>
+                          </m:e>
+                          <m:sub>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1100" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="dk1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>𝑖</m:t>
+                            </m:r>
+                          </m:sub>
+                        </m:sSub>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="dk1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>)</m:t>
+                        </m:r>
+                      </m:e>
+                    </m:nary>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
+              <a:endParaRPr lang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100"/>
+                <a:t>Where f_{i} is the frequency</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" baseline="0"/>
+                <a:t> of label i at a node and C is the number of unique labels.</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:endParaRPr lang="en-US" sz="1100" baseline="0"/>
+            </a:p>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100"/>
+                <a:t>https://scikit-learn.org/stable/modules/tree.html#tree</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2" name="TextBox 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9BE2A114-064F-42DD-A891-22E75950461C}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4069080" y="182880"/>
+              <a:ext cx="4267200" cy="2186940"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:ln w="9525" cmpd="sng">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:shade val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="1"/>
+                <a:t>What</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="1" baseline="0"/>
+                <a:t> is GINI Impurity:</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100"/>
+                <a:t>How often will a randomly</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" baseline="0"/>
+                <a:t> chosen element from the set be incorrectly labelled?</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>∑1_(𝑖=1)^𝐶▒〖𝑓_𝑖 (1−𝑓_𝑖)〗</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
+              <a:endParaRPr lang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100"/>
+                <a:t>Where f_{i} is the frequency</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" baseline="0"/>
+                <a:t> of label i at a node and C is the number of unique labels.</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:endParaRPr lang="en-US" sz="1100" baseline="0"/>
+            </a:p>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100"/>
+                <a:t>https://scikit-learn.org/stable/modules/tree.html#tree</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>91439</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>23644</xdr:rowOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>208305</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>25844</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="4" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B7D1EE26-EC26-487B-B987-CF3D6F7C1A7A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6386B292-CDD3-49AC-B036-A210138D165A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1292,21 +1970,15 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7231380" y="2651759"/>
-          <a:ext cx="8496300" cy="7430285"/>
+          <a:off x="7726680" y="2743200"/>
+          <a:ext cx="9961905" cy="6609524"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1621,28 +2293,28 @@
       <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="37" customWidth="1"/>
-    <col min="2" max="2" width="23.44140625" customWidth="1"/>
-    <col min="3" max="3" width="3.6640625" customWidth="1"/>
-    <col min="4" max="4" width="33.44140625" customWidth="1"/>
-    <col min="5" max="5" width="31.109375" customWidth="1"/>
-    <col min="6" max="6" width="24.88671875" customWidth="1"/>
+    <col min="2" max="2" width="23.42578125" customWidth="1"/>
+    <col min="3" max="3" width="3.7109375" customWidth="1"/>
+    <col min="4" max="4" width="33.42578125" customWidth="1"/>
+    <col min="5" max="5" width="31.140625" customWidth="1"/>
+    <col min="6" max="6" width="24.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15" thickBot="1">
-      <c r="A1" s="29" t="s">
+    <row r="1" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A1" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="D1" s="30" t="s">
+      <c r="B1" s="30"/>
+      <c r="D1" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-    </row>
-    <row r="2" spans="1:6" ht="15" thickBot="1">
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+    </row>
+    <row r="2" spans="1:6" ht="15.75" thickBot="1">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1660,16 +2332,16 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="31" t="s">
+      <c r="A3" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="32"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="33"/>
-    </row>
-    <row r="4" spans="1:6" ht="28.8">
+      <c r="B3" s="33"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="34"/>
+    </row>
+    <row r="4" spans="1:6" ht="30">
       <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
@@ -1708,7 +2380,7 @@
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
     </row>
-    <row r="7" spans="1:6" ht="28.8">
+    <row r="7" spans="1:6" ht="30">
       <c r="A7" s="5" t="s">
         <v>7</v>
       </c>
@@ -1728,7 +2400,7 @@
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
     </row>
-    <row r="9" spans="1:6" ht="28.8">
+    <row r="9" spans="1:6" ht="30">
       <c r="A9" s="4" t="s">
         <v>84</v>
       </c>
@@ -1750,7 +2422,7 @@
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
     </row>
-    <row r="11" spans="1:6" ht="43.2">
+    <row r="11" spans="1:6" ht="45">
       <c r="A11" s="9" t="s">
         <v>88</v>
       </c>
@@ -1761,7 +2433,7 @@
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
     </row>
-    <row r="12" spans="1:6" ht="115.2">
+    <row r="12" spans="1:6" ht="120">
       <c r="A12" s="9" t="s">
         <v>90</v>
       </c>
@@ -1783,7 +2455,7 @@
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
     </row>
-    <row r="14" spans="1:6" ht="28.8">
+    <row r="14" spans="1:6" ht="30">
       <c r="A14" s="4" t="s">
         <v>84</v>
       </c>
@@ -1795,16 +2467,16 @@
       <c r="F14" s="4"/>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="31" t="s">
+      <c r="A15" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="B15" s="32"/>
-      <c r="C15" s="32"/>
-      <c r="D15" s="32"/>
-      <c r="E15" s="32"/>
-      <c r="F15" s="33"/>
-    </row>
-    <row r="16" spans="1:6" ht="28.8">
+      <c r="B15" s="33"/>
+      <c r="C15" s="33"/>
+      <c r="D15" s="33"/>
+      <c r="E15" s="33"/>
+      <c r="F15" s="34"/>
+    </row>
+    <row r="16" spans="1:6" ht="30">
       <c r="A16" s="4" t="s">
         <v>9</v>
       </c>
@@ -1817,7 +2489,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="28.8">
+    <row r="17" spans="1:6" ht="30">
       <c r="A17" s="4" t="s">
         <v>10</v>
       </c>
@@ -1860,7 +2532,7 @@
       </c>
       <c r="F19" s="4"/>
     </row>
-    <row r="20" spans="1:6" ht="43.2">
+    <row r="20" spans="1:6" ht="45">
       <c r="A20" s="4" t="s">
         <v>13</v>
       </c>
@@ -1944,7 +2616,7 @@
       </c>
       <c r="F25" s="4"/>
     </row>
-    <row r="26" spans="1:6" ht="72">
+    <row r="26" spans="1:6" ht="75">
       <c r="A26" s="5" t="s">
         <v>17</v>
       </c>
@@ -1960,14 +2632,14 @@
       </c>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="31" t="s">
+      <c r="A27" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="B27" s="32"/>
-      <c r="C27" s="32"/>
-      <c r="D27" s="32"/>
-      <c r="E27" s="32"/>
-      <c r="F27" s="33"/>
+      <c r="B27" s="33"/>
+      <c r="C27" s="33"/>
+      <c r="D27" s="33"/>
+      <c r="E27" s="33"/>
+      <c r="F27" s="34"/>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="8" t="s">
@@ -1986,25 +2658,25 @@
         <v>33</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="86.4">
+    <row r="29" spans="1:6" ht="90">
       <c r="D29" s="4" t="s">
         <v>34</v>
       </c>
       <c r="E29" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="F29" s="28" t="s">
+      <c r="F29" s="29" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="28.8">
+    <row r="30" spans="1:6" ht="30">
       <c r="D30" s="4" t="s">
         <v>35</v>
       </c>
       <c r="E30" s="4"/>
-      <c r="F30" s="28"/>
-    </row>
-    <row r="31" spans="1:6" ht="28.8">
+      <c r="F30" s="29"/>
+    </row>
+    <row r="31" spans="1:6" ht="30">
       <c r="D31" s="4" t="s">
         <v>37</v>
       </c>
@@ -2015,7 +2687,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="28.8">
+    <row r="32" spans="1:6" ht="30">
       <c r="D32" s="4" t="s">
         <v>38</v>
       </c>
@@ -2026,7 +2698,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="33" spans="4:6" ht="28.8">
+    <row r="33" spans="4:6" ht="30">
       <c r="D33" s="4" t="s">
         <v>39</v>
       </c>
@@ -2037,7 +2709,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="34" spans="4:6" ht="28.8">
+    <row r="34" spans="4:6" ht="30">
       <c r="D34" s="4" t="s">
         <v>41</v>
       </c>
@@ -2048,7 +2720,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="35" spans="4:6">
+    <row r="35" spans="4:6" ht="30">
       <c r="D35" s="4" t="s">
         <v>43</v>
       </c>
@@ -2059,7 +2731,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="36" spans="4:6" ht="28.8">
+    <row r="36" spans="4:6" ht="30">
       <c r="D36" s="4" t="s">
         <v>45</v>
       </c>
@@ -2079,7 +2751,7 @@
       </c>
       <c r="F37" s="4"/>
     </row>
-    <row r="38" spans="4:6" ht="27.6">
+    <row r="38" spans="4:6" ht="28.5">
       <c r="D38" s="6" t="s">
         <v>85</v>
       </c>
@@ -2106,25 +2778,25 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE375654-8A33-4171-B7F2-45BB81BA18E9}">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:G41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -2232,11 +2904,11 @@
       <c r="F7" s="11"/>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="34" t="s">
+      <c r="A8" s="35" t="s">
         <v>101</v>
       </c>
-      <c r="B8" s="34"/>
-      <c r="C8" s="34"/>
+      <c r="B8" s="35"/>
+      <c r="C8" s="35"/>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="12" t="s">
@@ -2309,12 +2981,12 @@
       </c>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="34" t="s">
+      <c r="A15" s="35" t="s">
         <v>125</v>
       </c>
-      <c r="B15" s="34"/>
-      <c r="C15" s="34"/>
-      <c r="D15" s="34"/>
+      <c r="B15" s="35"/>
+      <c r="C15" s="35"/>
+      <c r="D15" s="35"/>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" t="s">
@@ -2336,6 +3008,16 @@
       </c>
       <c r="B17" s="23">
         <v>27314.92</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="41" spans="7:7">
+      <c r="G41" t="s">
+        <v>164</v>
       </c>
     </row>
   </sheetData>
@@ -2345,33 +3027,34 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{238DECEC-9B7C-4321-818D-6FCB20D4FD66}">
-  <dimension ref="A1:G28"/>
+  <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="35" t="s">
         <v>113</v>
       </c>
-      <c r="B2" s="34"/>
+      <c r="B2" s="35"/>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="18" t="s">
@@ -2379,27 +3062,27 @@
       </c>
       <c r="B3" s="18"/>
     </row>
-    <row r="6" spans="1:7" ht="15.6">
-      <c r="A6" s="35" t="s">
+    <row r="6" spans="1:7" ht="15.75">
+      <c r="A6" s="37" t="s">
         <v>111</v>
       </c>
-      <c r="B6" s="35"/>
-      <c r="C6" s="35"/>
-      <c r="D6" s="35"/>
-      <c r="E6" s="35"/>
+      <c r="B6" s="37"/>
+      <c r="C6" s="37"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="37"/>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="19" t="s">
         <v>115</v>
       </c>
-      <c r="B7" s="36" t="s">
+      <c r="B7" s="38" t="s">
         <v>121</v>
       </c>
-      <c r="C7" s="36"/>
-      <c r="D7" s="36"/>
-      <c r="E7" s="36"/>
-      <c r="F7" s="36"/>
-      <c r="G7" s="36"/>
+      <c r="C7" s="38"/>
+      <c r="D7" s="38"/>
+      <c r="E7" s="38"/>
+      <c r="F7" s="38"/>
+      <c r="G7" s="38"/>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="19" t="s">
@@ -2441,21 +3124,21 @@
         <v>122</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="15.6">
-      <c r="A14" s="37" t="s">
+    <row r="14" spans="1:7" ht="15.75">
+      <c r="A14" s="36" t="s">
         <v>132</v>
       </c>
-      <c r="B14" s="37"/>
-      <c r="C14" s="37"/>
-      <c r="D14" s="37"/>
-      <c r="E14" s="37"/>
+      <c r="B14" s="36"/>
+      <c r="C14" s="36"/>
+      <c r="D14" s="36"/>
+      <c r="E14" s="36"/>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="19" t="s">
         <v>115</v>
       </c>
       <c r="B15" t="s">
-        <v>133</v>
+        <v>157</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -2487,7 +3170,7 @@
         <v>119</v>
       </c>
       <c r="B19" s="16" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -2495,24 +3178,24 @@
         <v>120</v>
       </c>
       <c r="B20" s="16" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="15.6">
-      <c r="A22" s="37" t="s">
-        <v>148</v>
-      </c>
-      <c r="B22" s="37"/>
-      <c r="C22" s="37"/>
-      <c r="D22" s="37"/>
-      <c r="E22" s="37"/>
+        <v>134</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="15.75">
+      <c r="A22" s="36" t="s">
+        <v>147</v>
+      </c>
+      <c r="B22" s="36"/>
+      <c r="C22" s="36"/>
+      <c r="D22" s="36"/>
+      <c r="E22" s="36"/>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="19" t="s">
         <v>115</v>
       </c>
       <c r="B23" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -2551,12 +3234,70 @@
       <c r="A28" s="19" t="s">
         <v>120</v>
       </c>
-      <c r="B28" t="s">
-        <v>135</v>
+      <c r="B28" s="16" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="15.75">
+      <c r="A30" s="36" t="s">
+        <v>150</v>
+      </c>
+      <c r="B30" s="36"/>
+      <c r="C30" s="36"/>
+      <c r="D30" s="36"/>
+      <c r="E30" s="36"/>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="B31" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="B32">
+        <v>8942</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="B33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="B34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="B35" s="16" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="B36" s="16" t="s">
+        <v>134</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
+    <mergeCell ref="A30:E30"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A6:E6"/>
     <mergeCell ref="B7:G7"/>
@@ -2564,51 +3305,52 @@
     <mergeCell ref="A22:E22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{604F6D97-F180-46B6-B049-574DD2A9AE37}">
-  <dimension ref="A1:I32"/>
+  <dimension ref="A1:I48"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="22.33203125" customWidth="1"/>
-    <col min="3" max="3" width="12.88671875" customWidth="1"/>
-    <col min="16382" max="16384" width="8.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.28515625" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" customWidth="1"/>
+    <col min="16382" max="16384" width="8.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="39" t="s">
-        <v>140</v>
-      </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
+      <c r="A1" s="40" t="s">
+        <v>139</v>
+      </c>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
       <c r="E1" s="13"/>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="13"/>
       <c r="B2" s="14"/>
-      <c r="C2" s="41" t="s">
+      <c r="C2" s="42" t="s">
         <v>102</v>
       </c>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="38" t="s">
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="39" t="s">
         <v>103</v>
       </c>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38" t="s">
+      <c r="G2" s="39"/>
+      <c r="H2" s="39" t="s">
         <v>104</v>
       </c>
-      <c r="I2" s="38"/>
-    </row>
-    <row r="3" spans="1:9" ht="28.8">
+      <c r="I2" s="39"/>
+    </row>
+    <row r="3" spans="1:9" ht="30">
       <c r="A3" s="20" t="s">
         <v>105</v>
       </c>
@@ -2748,7 +3490,7 @@
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="17" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -2815,7 +3557,7 @@
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="17" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D21" s="16"/>
     </row>
@@ -2873,7 +3615,7 @@
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="16" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C24">
         <v>-7.6999999999999999E-2</v>
@@ -2903,13 +3645,13 @@
     </row>
     <row r="26" spans="1:9">
       <c r="A26" s="17" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D26" s="16"/>
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="16" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C27">
         <v>-0.255</v>
@@ -2923,7 +3665,7 @@
     </row>
     <row r="28" spans="1:9">
       <c r="A28" s="16" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C28">
         <v>-5.3999999999999999E-2</v>
@@ -2965,7 +3707,7 @@
     </row>
     <row r="31" spans="1:9">
       <c r="A31" s="16" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C31">
         <v>-8.4000000000000005E-2</v>
@@ -2989,6 +3731,184 @@
       </c>
       <c r="E32">
         <v>1.0469999999999999</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="17" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="16" t="s">
+        <v>147</v>
+      </c>
+      <c r="C35">
+        <v>-0.17100000000000001</v>
+      </c>
+      <c r="D35" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="E35">
+        <v>0.93400000000000005</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="C36">
+        <v>-0.24299999999999999</v>
+      </c>
+      <c r="D36" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="E36">
+        <v>0.90800000000000003</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="C37">
+        <v>-3.3000000000000002E-2</v>
+      </c>
+      <c r="D37">
+        <v>2E-3</v>
+      </c>
+      <c r="E37">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="C38">
+        <v>-8.3000000000000004E-2</v>
+      </c>
+      <c r="D38" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="E38">
+        <v>0.92700000000000005</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C39">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="D39" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="E39">
+        <v>1.044</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C40">
+        <v>-8.4000000000000005E-2</v>
+      </c>
+      <c r="D40" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="E40">
+        <v>0.88800000000000001</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="17" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="16" t="s">
+        <v>147</v>
+      </c>
+      <c r="C43">
+        <v>-0.14199999999999999</v>
+      </c>
+      <c r="D43" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="E43">
+        <v>0.94499999999999995</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="16" t="s">
+        <v>150</v>
+      </c>
+      <c r="C44">
+        <v>-0.24099999999999999</v>
+      </c>
+      <c r="D44" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="E44">
+        <v>0.90900000000000003</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="C45">
+        <v>-4.2000000000000003E-2</v>
+      </c>
+      <c r="D45" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="E45">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="C46">
+        <v>-0.128</v>
+      </c>
+      <c r="D46" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="E46">
+        <v>0.998</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="C47">
+        <v>-9.7000000000000003E-2</v>
+      </c>
+      <c r="D47" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="E47">
+        <v>0.91600000000000004</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C48">
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="D48" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="E48">
+        <v>1.04</v>
       </c>
     </row>
   </sheetData>
@@ -2999,8 +3919,24 @@
     <mergeCell ref="C2:E2"/>
   </mergeCells>
   <conditionalFormatting sqref="D27:D32 D22:D24 D16:D19 D10:D13 D5:D7 G22:G24 I22:I24">
+    <cfRule type="containsText" dxfId="21" priority="5" operator="containsText" text="&lt;0.001">
+      <formula>NOT(ISERROR(SEARCH("&lt;0.001",D5)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="20" priority="6" operator="lessThan">
+      <formula>0.05</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D35:D40">
+    <cfRule type="containsText" dxfId="19" priority="3" operator="containsText" text="&lt;0.001">
+      <formula>NOT(ISERROR(SEARCH("&lt;0.001",D35)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="18" priority="4" operator="lessThan">
+      <formula>0.05</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D43:D48">
     <cfRule type="containsText" dxfId="17" priority="1" operator="containsText" text="&lt;0.001">
-      <formula>NOT(ISERROR(SEARCH("&lt;0.001",D5)))</formula>
+      <formula>NOT(ISERROR(SEARCH("&lt;0.001",D43)))</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="16" priority="2" operator="lessThan">
       <formula>0.05</formula>
@@ -3016,47 +3952,47 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8743118-3A32-47C7-84AD-45E2B14B31EA}">
   <dimension ref="A1:H29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="30.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.6640625" customWidth="1"/>
-    <col min="3" max="3" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.7109375" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="25" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B1" s="25"/>
       <c r="C1" s="25"/>
       <c r="D1" s="25"/>
     </row>
-    <row r="2" spans="1:8" ht="22.2" customHeight="1">
-      <c r="C2" s="42" t="s">
+    <row r="2" spans="1:8" ht="22.15" customHeight="1">
+      <c r="C2" s="43" t="s">
         <v>102</v>
       </c>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42" t="s">
+      <c r="D2" s="43"/>
+      <c r="E2" s="43" t="s">
         <v>103</v>
       </c>
-      <c r="F2" s="42"/>
-      <c r="G2" s="42" t="s">
+      <c r="F2" s="43"/>
+      <c r="G2" s="43" t="s">
         <v>104</v>
       </c>
-      <c r="H2" s="42"/>
-    </row>
-    <row r="3" spans="1:8" ht="22.2" customHeight="1">
+      <c r="H2" s="43"/>
+    </row>
+    <row r="3" spans="1:8" ht="22.15" customHeight="1">
       <c r="A3" s="17" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C3" t="s">
         <v>124</v>
@@ -3079,7 +4015,7 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="24" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D4" s="16" t="s">
         <v>110</v>
@@ -3139,7 +4075,7 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="16" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C7">
         <v>0.68659999999999999</v>
@@ -3162,7 +4098,7 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="16" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C8">
         <v>0.76480000000000004</v>
@@ -3188,19 +4124,19 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="17" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C10" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D10" s="16"/>
       <c r="E10" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="16" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D11" s="16" t="s">
         <v>110</v>
@@ -3230,7 +4166,7 @@
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="16" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C14">
         <v>0.71250000000000002</v>
@@ -3241,7 +4177,7 @@
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="16" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C15">
         <v>0.76700000000000002</v>
@@ -3266,19 +4202,19 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="17" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C18" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D18" s="16"/>
       <c r="E18" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="16" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D19" s="16" t="s">
         <v>110</v>
@@ -3308,7 +4244,7 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="16" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C22">
         <v>0.62709999999999999</v>
@@ -3319,7 +4255,7 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="16" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C23">
         <v>0.72209999999999996</v>
@@ -3341,7 +4277,7 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="16" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C25">
         <v>0.98329999999999995</v>
@@ -3352,7 +4288,7 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="16" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C26">
         <v>0.2974</v>
@@ -3363,7 +4299,7 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="16" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C27">
         <v>0.93340000000000001</v>
@@ -3374,7 +4310,7 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="16" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C28">
         <v>0.56369999999999998</v>
@@ -3459,84 +4395,116 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D19:D29">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="lessThan">
+    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="&lt;0.001">
+      <formula>NOT(ISERROR(SEARCH("&lt;0.001",D19)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="lessThan">
       <formula>0.05</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="&lt;0.001">
-      <formula>NOT(ISERROR(SEARCH("&lt;0.001",D19)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{062C27E3-330B-4BAF-8F05-331C962A113B}">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:N13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="29" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:14">
       <c r="A1" s="25" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B1" s="25"/>
       <c r="C1" s="25"/>
       <c r="D1" s="25"/>
     </row>
-    <row r="2" spans="1:4">
-      <c r="C2" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+    <row r="2" spans="1:14">
+      <c r="C2" s="28" t="s">
+        <v>146</v>
+      </c>
+      <c r="M2" s="44" t="s">
+        <v>160</v>
+      </c>
+      <c r="N2" s="44"/>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="26" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B3" s="26"/>
       <c r="C3" s="26"/>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="L3" s="15" t="s">
+        <v>161</v>
+      </c>
+      <c r="M3" t="s">
+        <v>162</v>
+      </c>
+      <c r="N3" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" s="16" t="s">
         <v>21</v>
       </c>
       <c r="C4">
         <v>0.43608000000000002</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="L4" t="s">
+        <v>162</v>
+      </c>
+      <c r="M4">
+        <v>1376</v>
+      </c>
+      <c r="N4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5" s="16" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C5">
         <v>0.17945</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="L5" t="s">
+        <v>163</v>
+      </c>
+      <c r="M5">
+        <v>373</v>
+      </c>
+      <c r="N5">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6" s="16" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C6">
         <v>0.12470000000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:14">
       <c r="A7" s="16" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C7">
         <v>0.11394</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:14">
       <c r="A8" s="16" t="s">
         <v>6</v>
       </c>
@@ -3544,15 +4512,15 @@
         <v>6.3729999999999995E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:14">
       <c r="A9" s="16" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C9">
         <v>4.5780000000000001E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:14">
       <c r="A10" s="16" t="s">
         <v>5</v>
       </c>
@@ -3560,23 +4528,23 @@
         <v>1.366E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:14">
       <c r="A11" s="16" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C11">
         <v>1.1209999999999999E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:14">
       <c r="A12" s="16" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C12">
         <v>1.0699999999999999E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:14">
       <c r="A13" s="16" t="s">
         <v>3</v>
       </c>
@@ -3585,6 +4553,9 @@
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="M2:N2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -3599,14 +4570,14 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="22.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="2" spans="1:1">

--- a/NLS/Immigration Dictionary.xlsx
+++ b/NLS/Immigration Dictionary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2d474aaa2186e9c7/CSU Classes/Consulting/NLS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="824" documentId="14_{FDBBC5D5-DD1B-4078-B5B4-1BF14B832747}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{17CF88ED-342F-4815-A55C-5EB8F7EADF28}"/>
+  <xr:revisionPtr revIDLastSave="852" documentId="14_{FDBBC5D5-DD1B-4078-B5B4-1BF14B832747}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{0746CE40-6C82-49A3-A8A7-EB64DD3A3EC7}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{2096B911-1958-45C3-8B1A-4C0F362183A1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{2096B911-1958-45C3-8B1A-4C0F362183A1}"/>
   </bookViews>
   <sheets>
     <sheet name="Dictionary" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,6 @@
     <sheet name="SEM" sheetId="3" r:id="rId4"/>
     <sheet name="Logistic Regression" sheetId="6" r:id="rId5"/>
     <sheet name="RandomForest" sheetId="7" r:id="rId6"/>
-    <sheet name="DNN" sheetId="8" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="166">
   <si>
     <t>Variable name</t>
   </si>
@@ -490,9 +489,6 @@
     <t>VictViolentCrime Homeless HHHospital HHJail</t>
   </si>
   <si>
-    <t>Maximum Test Accuracy</t>
-  </si>
-  <si>
     <t>DELINQUENCY</t>
   </si>
   <si>
@@ -536,6 +532,12 @@
   </si>
   <si>
     <t>file:///C:/Users/miqui/OneDrive/CSU%20Classes/Consulting/NLS/test.html</t>
+  </si>
+  <si>
+    <t>AUC 0.6878</t>
+  </si>
+  <si>
+    <t>AUC 0.7273</t>
   </si>
 </sst>
 </file>
@@ -546,7 +548,7 @@
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -633,8 +635,22 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -657,6 +673,16 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
   </fills>
@@ -739,11 +765,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -803,10 +831,13 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -840,14 +871,11 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -856,8 +884,10 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="4">
+    <cellStyle name="Bad" xfId="3" builtinId="27"/>
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
+    <cellStyle name="Good" xfId="2" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="22">
@@ -1333,14 +1363,14 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1066800</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>502920</xdr:colOff>
+      <xdr:colOff>518160</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>36433</xdr:rowOff>
     </xdr:to>
@@ -1371,8 +1401,52 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5013960" y="1851660"/>
+          <a:off x="5029200" y="1851660"/>
           <a:ext cx="7772400" cy="4052173"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>663340</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>38501</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B1FBE7F-292D-4F77-B803-2B72C789D027}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="5669280"/>
+          <a:ext cx="4610500" cy="4625741"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1446,8 +1520,8 @@
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>175260</xdr:rowOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
       <mc:Choice Requires="a14">
@@ -1464,8 +1538,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="4069080" y="182880"/>
-              <a:ext cx="4267200" cy="2186940"/>
+              <a:off x="3990975" y="190500"/>
+              <a:ext cx="4267200" cy="2286000"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -1543,6 +1617,30 @@
                     <m:jc m:val="centerGroup"/>
                   </m:oMathParaPr>
                   <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1100" i="1">
+                        <a:solidFill>
+                          <a:schemeClr val="dk1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>𝐺</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1100" i="1">
+                        <a:solidFill>
+                          <a:schemeClr val="dk1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>=</m:t>
+                    </m:r>
                     <m:nary>
                       <m:naryPr>
                         <m:chr m:val="∑"/>
@@ -1570,7 +1668,7 @@
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
-                          <m:t>𝑖</m:t>
+                          <m:t>𝑐</m:t>
                         </m:r>
                         <m:r>
                           <a:rPr lang="en-US" sz="1100" i="1">
@@ -1615,18 +1713,36 @@
                             </m:ctrlPr>
                           </m:sSubPr>
                           <m:e>
-                            <m:r>
-                              <a:rPr lang="en-US" sz="1100" i="1">
-                                <a:solidFill>
-                                  <a:schemeClr val="dk1"/>
-                                </a:solidFill>
-                                <a:effectLst/>
-                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                <a:ea typeface="+mn-ea"/>
-                                <a:cs typeface="+mn-cs"/>
-                              </a:rPr>
-                              <m:t>𝑓</m:t>
-                            </m:r>
+                            <m:acc>
+                              <m:accPr>
+                                <m:chr m:val="̂"/>
+                                <m:ctrlPr>
+                                  <a:rPr lang="en-US" sz="1100" i="1">
+                                    <a:solidFill>
+                                      <a:schemeClr val="dk1"/>
+                                    </a:solidFill>
+                                    <a:effectLst/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    <a:ea typeface="+mn-ea"/>
+                                    <a:cs typeface="+mn-cs"/>
+                                  </a:rPr>
+                                </m:ctrlPr>
+                              </m:accPr>
+                              <m:e>
+                                <m:r>
+                                  <a:rPr lang="en-US" sz="1100" i="1">
+                                    <a:solidFill>
+                                      <a:schemeClr val="dk1"/>
+                                    </a:solidFill>
+                                    <a:effectLst/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    <a:ea typeface="+mn-ea"/>
+                                    <a:cs typeface="+mn-cs"/>
+                                  </a:rPr>
+                                  <m:t>𝜋</m:t>
+                                </m:r>
+                              </m:e>
+                            </m:acc>
                           </m:e>
                           <m:sub>
                             <m:r>
@@ -1639,7 +1755,7 @@
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
-                              <m:t>𝑖</m:t>
+                              <m:t>𝑚𝑐</m:t>
                             </m:r>
                           </m:sub>
                         </m:sSub>
@@ -1670,18 +1786,36 @@
                             </m:ctrlPr>
                           </m:sSubPr>
                           <m:e>
-                            <m:r>
-                              <a:rPr lang="en-US" sz="1100" i="1">
-                                <a:solidFill>
-                                  <a:schemeClr val="dk1"/>
-                                </a:solidFill>
-                                <a:effectLst/>
-                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                <a:ea typeface="+mn-ea"/>
-                                <a:cs typeface="+mn-cs"/>
-                              </a:rPr>
-                              <m:t>𝑓</m:t>
-                            </m:r>
+                            <m:acc>
+                              <m:accPr>
+                                <m:chr m:val="̂"/>
+                                <m:ctrlPr>
+                                  <a:rPr lang="en-US" sz="1100" i="1">
+                                    <a:solidFill>
+                                      <a:schemeClr val="dk1"/>
+                                    </a:solidFill>
+                                    <a:effectLst/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    <a:ea typeface="+mn-ea"/>
+                                    <a:cs typeface="+mn-cs"/>
+                                  </a:rPr>
+                                </m:ctrlPr>
+                              </m:accPr>
+                              <m:e>
+                                <m:r>
+                                  <a:rPr lang="en-US" sz="1100" i="1">
+                                    <a:solidFill>
+                                      <a:schemeClr val="dk1"/>
+                                    </a:solidFill>
+                                    <a:effectLst/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    <a:ea typeface="+mn-ea"/>
+                                    <a:cs typeface="+mn-cs"/>
+                                  </a:rPr>
+                                  <m:t>𝜋</m:t>
+                                </m:r>
+                              </m:e>
+                            </m:acc>
                           </m:e>
                           <m:sub>
                             <m:r>
@@ -1694,7 +1828,7 @@
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
-                              <m:t>𝑖</m:t>
+                              <m:t>𝑚𝑐</m:t>
                             </m:r>
                           </m:sub>
                         </m:sSub>
@@ -1756,7 +1890,76 @@
             <a:p>
               <a:r>
                 <a:rPr lang="en-US" sz="1100"/>
-                <a:t>Where f_{i} is the frequency</a:t>
+                <a:t>Where </a:t>
+              </a:r>
+              <a14:m>
+                <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:sSub>
+                    <m:sSubPr>
+                      <m:ctrlPr>
+                        <a:rPr lang="en-US" sz="1100" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="dk1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                      </m:ctrlPr>
+                    </m:sSubPr>
+                    <m:e>
+                      <m:acc>
+                        <m:accPr>
+                          <m:chr m:val="̂"/>
+                          <m:ctrlPr>
+                            <a:rPr lang="en-US" sz="1100" i="1">
+                              <a:solidFill>
+                                <a:schemeClr val="dk1"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:ea typeface="+mn-ea"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                          </m:ctrlPr>
+                        </m:accPr>
+                        <m:e>
+                          <m:r>
+                            <a:rPr lang="en-US" sz="1100" i="1">
+                              <a:solidFill>
+                                <a:schemeClr val="dk1"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:ea typeface="+mn-ea"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                            <m:t>𝜋</m:t>
+                          </m:r>
+                        </m:e>
+                      </m:acc>
+                    </m:e>
+                    <m:sub>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1100" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="dk1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>𝑚𝑐</m:t>
+                      </m:r>
+                    </m:sub>
+                  </m:sSub>
+                </m:oMath>
+              </a14:m>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100"/>
+                <a:t> is the frequency</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="en-US" sz="1100" baseline="0"/>
@@ -1792,8 +1995,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="4069080" y="182880"/>
-              <a:ext cx="4267200" cy="2186940"/>
+              <a:off x="3990975" y="190500"/>
+              <a:ext cx="4267200" cy="2286000"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -1871,11 +2074,11 @@
                     <a:schemeClr val="dk1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
-                <a:t>∑1_(𝑖=1)^𝐶▒〖𝑓_𝑖 (1−𝑓_𝑖)〗</a:t>
+                <a:t>𝐺=∑1_(𝑐=1)^𝐶▒〖𝜋 ̂_𝑚𝑐 (1−𝜋 ̂_𝑚𝑐)〗</a:t>
               </a:r>
               <a:endParaRPr lang="en-US" sz="1100">
                 <a:solidFill>
@@ -1918,7 +2121,23 @@
             <a:p>
               <a:r>
                 <a:rPr lang="en-US" sz="1100"/>
-                <a:t>Where f_{i} is the frequency</a:t>
+                <a:t>Where </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝜋 ̂_𝑚𝑐</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100"/>
+                <a:t> is the frequency</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="en-US" sz="1100" baseline="0"/>
@@ -2289,8 +2508,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{920464C5-DCD3-4FFB-8D80-CA80DEE31D7B}">
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2304,15 +2523,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="D1" s="31" t="s">
+      <c r="B1" s="33"/>
+      <c r="D1" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
     </row>
     <row r="2" spans="1:6" ht="15.75" thickBot="1">
       <c r="A2" s="1" t="s">
@@ -2332,14 +2551,14 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="32" t="s">
+      <c r="A3" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="33"/>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="34"/>
+      <c r="B3" s="36"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="37"/>
     </row>
     <row r="4" spans="1:6" ht="30">
       <c r="A4" s="4" t="s">
@@ -2467,14 +2686,14 @@
       <c r="F14" s="4"/>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="32" t="s">
+      <c r="A15" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="B15" s="33"/>
-      <c r="C15" s="33"/>
-      <c r="D15" s="33"/>
-      <c r="E15" s="33"/>
-      <c r="F15" s="34"/>
+      <c r="B15" s="36"/>
+      <c r="C15" s="36"/>
+      <c r="D15" s="36"/>
+      <c r="E15" s="36"/>
+      <c r="F15" s="37"/>
     </row>
     <row r="16" spans="1:6" ht="30">
       <c r="A16" s="4" t="s">
@@ -2632,14 +2851,14 @@
       </c>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="32" t="s">
+      <c r="A27" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="B27" s="33"/>
-      <c r="C27" s="33"/>
-      <c r="D27" s="33"/>
-      <c r="E27" s="33"/>
-      <c r="F27" s="34"/>
+      <c r="B27" s="36"/>
+      <c r="C27" s="36"/>
+      <c r="D27" s="36"/>
+      <c r="E27" s="36"/>
+      <c r="F27" s="37"/>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="8" t="s">
@@ -2665,7 +2884,7 @@
       <c r="E29" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="F29" s="29" t="s">
+      <c r="F29" s="32" t="s">
         <v>36</v>
       </c>
     </row>
@@ -2674,7 +2893,7 @@
         <v>35</v>
       </c>
       <c r="E30" s="4"/>
-      <c r="F30" s="29"/>
+      <c r="F30" s="32"/>
     </row>
     <row r="31" spans="1:6" ht="30">
       <c r="D31" s="4" t="s">
@@ -2781,7 +3000,7 @@
   <dimension ref="A1:G41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2904,11 +3123,11 @@
       <c r="F7" s="11"/>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="35" t="s">
+      <c r="A8" s="38" t="s">
         <v>101</v>
       </c>
-      <c r="B8" s="35"/>
-      <c r="C8" s="35"/>
+      <c r="B8" s="38"/>
+      <c r="C8" s="38"/>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="12" t="s">
@@ -2981,12 +3200,12 @@
       </c>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="35" t="s">
+      <c r="A15" s="38" t="s">
         <v>125</v>
       </c>
-      <c r="B15" s="35"/>
-      <c r="C15" s="35"/>
-      <c r="D15" s="35"/>
+      <c r="B15" s="38"/>
+      <c r="C15" s="38"/>
+      <c r="D15" s="38"/>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" t="s">
@@ -3012,12 +3231,12 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="41" spans="7:7">
       <c r="G41" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
   </sheetData>
@@ -3035,7 +3254,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{238DECEC-9B7C-4321-818D-6FCB20D4FD66}">
   <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
@@ -3051,10 +3270,10 @@
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="35" t="s">
+      <c r="A2" s="38" t="s">
         <v>113</v>
       </c>
-      <c r="B2" s="35"/>
+      <c r="B2" s="38"/>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="18" t="s">
@@ -3063,26 +3282,26 @@
       <c r="B3" s="18"/>
     </row>
     <row r="6" spans="1:7" ht="15.75">
-      <c r="A6" s="37" t="s">
+      <c r="A6" s="40" t="s">
         <v>111</v>
       </c>
-      <c r="B6" s="37"/>
-      <c r="C6" s="37"/>
-      <c r="D6" s="37"/>
-      <c r="E6" s="37"/>
+      <c r="B6" s="40"/>
+      <c r="C6" s="40"/>
+      <c r="D6" s="40"/>
+      <c r="E6" s="40"/>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="19" t="s">
         <v>115</v>
       </c>
-      <c r="B7" s="38" t="s">
+      <c r="B7" s="41" t="s">
         <v>121</v>
       </c>
-      <c r="C7" s="38"/>
-      <c r="D7" s="38"/>
-      <c r="E7" s="38"/>
-      <c r="F7" s="38"/>
-      <c r="G7" s="38"/>
+      <c r="C7" s="41"/>
+      <c r="D7" s="41"/>
+      <c r="E7" s="41"/>
+      <c r="F7" s="41"/>
+      <c r="G7" s="41"/>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="19" t="s">
@@ -3125,20 +3344,20 @@
       </c>
     </row>
     <row r="14" spans="1:7" ht="15.75">
-      <c r="A14" s="36" t="s">
+      <c r="A14" s="39" t="s">
         <v>132</v>
       </c>
-      <c r="B14" s="36"/>
-      <c r="C14" s="36"/>
-      <c r="D14" s="36"/>
-      <c r="E14" s="36"/>
+      <c r="B14" s="39"/>
+      <c r="C14" s="39"/>
+      <c r="D14" s="39"/>
+      <c r="E14" s="39"/>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="19" t="s">
         <v>115</v>
       </c>
       <c r="B15" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -3182,13 +3401,13 @@
       </c>
     </row>
     <row r="22" spans="1:5" ht="15.75">
-      <c r="A22" s="36" t="s">
+      <c r="A22" s="39" t="s">
         <v>147</v>
       </c>
-      <c r="B22" s="36"/>
-      <c r="C22" s="36"/>
-      <c r="D22" s="36"/>
-      <c r="E22" s="36"/>
+      <c r="B22" s="39"/>
+      <c r="C22" s="39"/>
+      <c r="D22" s="39"/>
+      <c r="E22" s="39"/>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="19" t="s">
@@ -3239,20 +3458,20 @@
       </c>
     </row>
     <row r="30" spans="1:5" ht="15.75">
-      <c r="A30" s="36" t="s">
-        <v>150</v>
-      </c>
-      <c r="B30" s="36"/>
-      <c r="C30" s="36"/>
-      <c r="D30" s="36"/>
-      <c r="E30" s="36"/>
+      <c r="A30" s="39" t="s">
+        <v>149</v>
+      </c>
+      <c r="B30" s="39"/>
+      <c r="C30" s="39"/>
+      <c r="D30" s="39"/>
+      <c r="E30" s="39"/>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="19" t="s">
         <v>115</v>
       </c>
       <c r="B31" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -3313,8 +3532,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{604F6D97-F180-46B6-B049-574DD2A9AE37}">
   <dimension ref="A1:I48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="C45" sqref="C45"/>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3325,30 +3544,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="44" t="s">
         <v>139</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
+      <c r="B1" s="44"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
       <c r="E1" s="13"/>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="13"/>
       <c r="B2" s="14"/>
-      <c r="C2" s="42" t="s">
+      <c r="C2" s="43" t="s">
         <v>102</v>
       </c>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="39" t="s">
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="42" t="s">
         <v>103</v>
       </c>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39" t="s">
+      <c r="G2" s="42"/>
+      <c r="H2" s="42" t="s">
         <v>104</v>
       </c>
-      <c r="I2" s="39"/>
+      <c r="I2" s="42"/>
     </row>
     <row r="3" spans="1:9" ht="30">
       <c r="A3" s="20" t="s">
@@ -3665,7 +3884,7 @@
     </row>
     <row r="28" spans="1:9">
       <c r="A28" s="16" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C28">
         <v>-5.3999999999999999E-2</v>
@@ -3843,7 +4062,7 @@
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="16" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C44">
         <v>-0.24099999999999999</v>
@@ -3915,8 +4134,8 @@
   <mergeCells count="4">
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="H2:I2"/>
-    <mergeCell ref="A1:D1"/>
     <mergeCell ref="C2:E2"/>
+    <mergeCell ref="A1:B1"/>
   </mergeCells>
   <conditionalFormatting sqref="D27:D32 D22:D24 D16:D19 D10:D13 D5:D7 G22:G24 I22:I24">
     <cfRule type="containsText" dxfId="21" priority="5" operator="containsText" text="&lt;0.001">
@@ -3952,9 +4171,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8743118-3A32-47C7-84AD-45E2B14B31EA}">
   <dimension ref="A1:H29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -3969,7 +4186,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="30" t="s">
         <v>140</v>
       </c>
       <c r="B1" s="25"/>
@@ -3977,18 +4194,18 @@
       <c r="D1" s="25"/>
     </row>
     <row r="2" spans="1:8" ht="22.15" customHeight="1">
-      <c r="C2" s="43" t="s">
+      <c r="C2" s="45" t="s">
         <v>102</v>
       </c>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43" t="s">
+      <c r="D2" s="45"/>
+      <c r="E2" s="45" t="s">
         <v>103</v>
       </c>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43" t="s">
+      <c r="F2" s="45"/>
+      <c r="G2" s="45" t="s">
         <v>104</v>
       </c>
-      <c r="H2" s="43"/>
+      <c r="H2" s="45"/>
     </row>
     <row r="3" spans="1:8" ht="22.15" customHeight="1">
       <c r="A3" s="17" t="s">
@@ -4131,7 +4348,7 @@
       </c>
       <c r="D10" s="16"/>
       <c r="E10" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -4141,6 +4358,9 @@
       <c r="D11" s="16" t="s">
         <v>110</v>
       </c>
+      <c r="E11" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="16" t="s">
@@ -4209,7 +4429,7 @@
       </c>
       <c r="D18" s="16"/>
       <c r="E18" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -4219,6 +4439,9 @@
       <c r="D19" s="16" t="s">
         <v>110</v>
       </c>
+      <c r="E19" t="s">
+        <v>165</v>
+      </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="16" t="s">
@@ -4277,7 +4500,7 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="16" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C25">
         <v>0.98329999999999995</v>
@@ -4288,7 +4511,7 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="16" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C26">
         <v>0.2974</v>
@@ -4299,7 +4522,7 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="16" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C27">
         <v>0.93340000000000001</v>
@@ -4310,7 +4533,7 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="16" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C28">
         <v>0.56369999999999998</v>
@@ -4403,7 +4626,8 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -4411,8 +4635,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{062C27E3-330B-4BAF-8F05-331C962A113B}">
   <dimension ref="A1:N13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4430,13 +4654,13 @@
       <c r="D1" s="25"/>
     </row>
     <row r="2" spans="1:14">
-      <c r="C2" s="28" t="s">
+      <c r="C2" s="27" t="s">
         <v>146</v>
       </c>
-      <c r="M2" s="44" t="s">
-        <v>160</v>
-      </c>
-      <c r="N2" s="44"/>
+      <c r="M2" s="46" t="s">
+        <v>159</v>
+      </c>
+      <c r="N2" s="46"/>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="26" t="s">
@@ -4445,13 +4669,13 @@
       <c r="B3" s="26"/>
       <c r="C3" s="26"/>
       <c r="L3" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="M3" t="s">
         <v>161</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>162</v>
-      </c>
-      <c r="N3" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -4462,12 +4686,12 @@
         <v>0.43608000000000002</v>
       </c>
       <c r="L4" t="s">
-        <v>162</v>
-      </c>
-      <c r="M4">
+        <v>161</v>
+      </c>
+      <c r="M4" s="28">
         <v>1376</v>
       </c>
-      <c r="N4">
+      <c r="N4" s="29">
         <v>15</v>
       </c>
     </row>
@@ -4479,18 +4703,18 @@
         <v>0.17945</v>
       </c>
       <c r="L5" t="s">
-        <v>163</v>
-      </c>
-      <c r="M5">
+        <v>162</v>
+      </c>
+      <c r="M5" s="29">
         <v>373</v>
       </c>
-      <c r="N5">
+      <c r="N5" s="28">
         <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="16" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C6">
         <v>0.12470000000000001</v>
@@ -4498,7 +4722,7 @@
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="16" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C7">
         <v>0.11394</v>
@@ -4514,7 +4738,7 @@
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="16" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C9">
         <v>4.5780000000000001E-2</v>
@@ -4530,7 +4754,7 @@
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="16" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C11">
         <v>1.1209999999999999E-2</v>
@@ -4560,32 +4784,4 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8CD3918-A8EF-41BB-9A73-F3B733D8D651}">
-  <dimension ref="A1:A2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="22.5703125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" s="27">
-        <v>0.79020000000000001</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/NLS/Immigration Dictionary.xlsx
+++ b/NLS/Immigration Dictionary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2d474aaa2186e9c7/CSU Classes/Consulting/NLS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="852" documentId="14_{FDBBC5D5-DD1B-4078-B5B4-1BF14B832747}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{0746CE40-6C82-49A3-A8A7-EB64DD3A3EC7}"/>
+  <xr:revisionPtr revIDLastSave="961" documentId="14_{FDBBC5D5-DD1B-4078-B5B4-1BF14B832747}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{85BA0332-752E-436C-ACF2-803E7577DF15}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{2096B911-1958-45C3-8B1A-4C0F362183A1}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="6" xr2:uid="{2096B911-1958-45C3-8B1A-4C0F362183A1}"/>
   </bookViews>
   <sheets>
     <sheet name="Dictionary" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="SEM" sheetId="3" r:id="rId4"/>
     <sheet name="Logistic Regression" sheetId="6" r:id="rId5"/>
     <sheet name="RandomForest" sheetId="7" r:id="rId6"/>
+    <sheet name="Recommendations" sheetId="9" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="173">
   <si>
     <t>Variable name</t>
   </si>
@@ -538,6 +539,27 @@
   </si>
   <si>
     <t>AUC 0.7273</t>
+  </si>
+  <si>
+    <t>Green is better than Red (p-value &lt;0.001)</t>
+  </si>
+  <si>
+    <t>High School Graduation Rates by Immigration Status</t>
+  </si>
+  <si>
+    <t>First-generation immigrants?</t>
+  </si>
+  <si>
+    <t>High School Graduation Rates by Victim of Violent Crime</t>
+  </si>
+  <si>
+    <t>Non-victim</t>
+  </si>
+  <si>
+    <t>Victim</t>
+  </si>
+  <si>
+    <t>Non-graduate</t>
   </si>
 </sst>
 </file>
@@ -650,7 +672,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -683,6 +705,30 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -771,7 +817,7 @@
     <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -838,6 +884,18 @@
     <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="3"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -883,6 +941,8 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Bad" xfId="3" builtinId="27"/>
@@ -890,7 +950,27 @@
     <cellStyle name="Good" xfId="2" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="22">
+  <dxfs count="24">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -1181,93 +1261,6 @@
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>182880</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>175260</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>472440</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>53340</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="TextBox 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E03184C6-702B-4EF3-BDD8-6A5FC0EB0841}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4427220" y="4930140"/>
-          <a:ext cx="2118360" cy="792480"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>Black</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t> = Odds Ratio</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t>Red and Orange = Std. All</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t>Latent to Response = Odds Ratio</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>21</xdr:col>
@@ -1314,23 +1307,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>504825</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>351301</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>85081</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>408381</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>29699</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="Picture 6">
+        <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD252B2F-DB66-4038-B001-FB3FCC692D64}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{867FFB3E-94D1-414A-B4E4-96DC99E7E9F7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1346,8 +1339,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4676775" y="5981700"/>
-          <a:ext cx="8990476" cy="5152381"/>
+          <a:off x="5059680" y="4937760"/>
+          <a:ext cx="9552381" cy="6247619"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1415,14 +1408,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>167640</xdr:rowOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>663340</xdr:colOff>
       <xdr:row>55</xdr:row>
-      <xdr:rowOff>38501</xdr:rowOff>
+      <xdr:rowOff>61361</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1445,7 +1438,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="5669280"/>
+          <a:off x="0" y="5692140"/>
           <a:ext cx="4610500" cy="4625741"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2209,6 +2202,113 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>243840</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>579120</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{525D4C39-DA5B-467F-845F-B45C1ED5DF50}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="243840" y="251460"/>
+          <a:ext cx="9479280" cy="4297680"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Recommendations</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> from Dr. Mallett and Dr. Quinn:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>+1 missed days in middle school = 10% increase in not graduating high school</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>Force immigrant at top node</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Write</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> up a report about a model you like:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>	Due November 17th, 2020</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -2512,28 +2612,28 @@
       <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="37" customWidth="1"/>
-    <col min="2" max="2" width="23.42578125" customWidth="1"/>
-    <col min="3" max="3" width="3.7109375" customWidth="1"/>
-    <col min="4" max="4" width="33.42578125" customWidth="1"/>
-    <col min="5" max="5" width="31.140625" customWidth="1"/>
-    <col min="6" max="6" width="24.85546875" customWidth="1"/>
+    <col min="2" max="2" width="23.44140625" customWidth="1"/>
+    <col min="3" max="3" width="3.6640625" customWidth="1"/>
+    <col min="4" max="4" width="33.44140625" customWidth="1"/>
+    <col min="5" max="5" width="31.109375" customWidth="1"/>
+    <col min="6" max="6" width="24.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A1" s="33" t="s">
+    <row r="1" spans="1:6" ht="15" thickBot="1">
+      <c r="A1" s="37" t="s">
         <v>48</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="D1" s="34" t="s">
+      <c r="B1" s="37"/>
+      <c r="D1" s="38" t="s">
         <v>49</v>
       </c>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-    </row>
-    <row r="2" spans="1:6" ht="15.75" thickBot="1">
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+    </row>
+    <row r="2" spans="1:6" ht="15" thickBot="1">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -2551,16 +2651,16 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="35" t="s">
+      <c r="A3" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="36"/>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="37"/>
-    </row>
-    <row r="4" spans="1:6" ht="30">
+      <c r="B3" s="40"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="41"/>
+    </row>
+    <row r="4" spans="1:6" ht="28.8">
       <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
@@ -2599,7 +2699,7 @@
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
     </row>
-    <row r="7" spans="1:6" ht="30">
+    <row r="7" spans="1:6" ht="28.8">
       <c r="A7" s="5" t="s">
         <v>7</v>
       </c>
@@ -2619,7 +2719,7 @@
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
     </row>
-    <row r="9" spans="1:6" ht="30">
+    <row r="9" spans="1:6" ht="28.8">
       <c r="A9" s="4" t="s">
         <v>84</v>
       </c>
@@ -2641,7 +2741,7 @@
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
     </row>
-    <row r="11" spans="1:6" ht="45">
+    <row r="11" spans="1:6" ht="43.2">
       <c r="A11" s="9" t="s">
         <v>88</v>
       </c>
@@ -2652,7 +2752,7 @@
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
     </row>
-    <row r="12" spans="1:6" ht="120">
+    <row r="12" spans="1:6" ht="115.2">
       <c r="A12" s="9" t="s">
         <v>90</v>
       </c>
@@ -2674,7 +2774,7 @@
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
     </row>
-    <row r="14" spans="1:6" ht="30">
+    <row r="14" spans="1:6" ht="28.8">
       <c r="A14" s="4" t="s">
         <v>84</v>
       </c>
@@ -2686,16 +2786,16 @@
       <c r="F14" s="4"/>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="35" t="s">
+      <c r="A15" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="B15" s="36"/>
-      <c r="C15" s="36"/>
-      <c r="D15" s="36"/>
-      <c r="E15" s="36"/>
-      <c r="F15" s="37"/>
-    </row>
-    <row r="16" spans="1:6" ht="30">
+      <c r="B15" s="40"/>
+      <c r="C15" s="40"/>
+      <c r="D15" s="40"/>
+      <c r="E15" s="40"/>
+      <c r="F15" s="41"/>
+    </row>
+    <row r="16" spans="1:6" ht="28.8">
       <c r="A16" s="4" t="s">
         <v>9</v>
       </c>
@@ -2708,7 +2808,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="30">
+    <row r="17" spans="1:6" ht="28.8">
       <c r="A17" s="4" t="s">
         <v>10</v>
       </c>
@@ -2751,7 +2851,7 @@
       </c>
       <c r="F19" s="4"/>
     </row>
-    <row r="20" spans="1:6" ht="45">
+    <row r="20" spans="1:6" ht="43.2">
       <c r="A20" s="4" t="s">
         <v>13</v>
       </c>
@@ -2835,7 +2935,7 @@
       </c>
       <c r="F25" s="4"/>
     </row>
-    <row r="26" spans="1:6" ht="75">
+    <row r="26" spans="1:6" ht="72">
       <c r="A26" s="5" t="s">
         <v>17</v>
       </c>
@@ -2851,14 +2951,14 @@
       </c>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="35" t="s">
+      <c r="A27" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="B27" s="36"/>
-      <c r="C27" s="36"/>
-      <c r="D27" s="36"/>
-      <c r="E27" s="36"/>
-      <c r="F27" s="37"/>
+      <c r="B27" s="40"/>
+      <c r="C27" s="40"/>
+      <c r="D27" s="40"/>
+      <c r="E27" s="40"/>
+      <c r="F27" s="41"/>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="8" t="s">
@@ -2877,25 +2977,25 @@
         <v>33</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="90">
+    <row r="29" spans="1:6" ht="86.4">
       <c r="D29" s="4" t="s">
         <v>34</v>
       </c>
       <c r="E29" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="F29" s="32" t="s">
+      <c r="F29" s="36" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="30">
+    <row r="30" spans="1:6" ht="28.8">
       <c r="D30" s="4" t="s">
         <v>35</v>
       </c>
       <c r="E30" s="4"/>
-      <c r="F30" s="32"/>
-    </row>
-    <row r="31" spans="1:6" ht="30">
+      <c r="F30" s="36"/>
+    </row>
+    <row r="31" spans="1:6" ht="28.8">
       <c r="D31" s="4" t="s">
         <v>37</v>
       </c>
@@ -2906,7 +3006,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="30">
+    <row r="32" spans="1:6" ht="28.8">
       <c r="D32" s="4" t="s">
         <v>38</v>
       </c>
@@ -2917,7 +3017,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="33" spans="4:6" ht="30">
+    <row r="33" spans="4:6" ht="28.8">
       <c r="D33" s="4" t="s">
         <v>39</v>
       </c>
@@ -2928,7 +3028,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="34" spans="4:6" ht="30">
+    <row r="34" spans="4:6" ht="28.8">
       <c r="D34" s="4" t="s">
         <v>41</v>
       </c>
@@ -2939,7 +3039,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="35" spans="4:6" ht="30">
+    <row r="35" spans="4:6">
       <c r="D35" s="4" t="s">
         <v>43</v>
       </c>
@@ -2950,7 +3050,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="36" spans="4:6" ht="30">
+    <row r="36" spans="4:6" ht="28.8">
       <c r="D36" s="4" t="s">
         <v>45</v>
       </c>
@@ -2970,7 +3070,7 @@
       </c>
       <c r="F37" s="4"/>
     </row>
-    <row r="38" spans="4:6" ht="28.5">
+    <row r="38" spans="4:6" ht="27.6">
       <c r="D38" s="6" t="s">
         <v>85</v>
       </c>
@@ -2997,20 +3097,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE375654-8A33-4171-B7F2-45BB81BA18E9}">
-  <dimension ref="A1:G41"/>
+  <dimension ref="A1:G43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="G43" sqref="G43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -3123,11 +3223,11 @@
       <c r="F7" s="11"/>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="38" t="s">
+      <c r="A8" s="42" t="s">
         <v>101</v>
       </c>
-      <c r="B8" s="38"/>
-      <c r="C8" s="38"/>
+      <c r="B8" s="42"/>
+      <c r="C8" s="42"/>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="12" t="s">
@@ -3200,12 +3300,12 @@
       </c>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="38" t="s">
+      <c r="A15" s="42" t="s">
         <v>125</v>
       </c>
-      <c r="B15" s="38"/>
-      <c r="C15" s="38"/>
-      <c r="D15" s="38"/>
+      <c r="B15" s="42"/>
+      <c r="C15" s="42"/>
+      <c r="D15" s="42"/>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" t="s">
@@ -3221,7 +3321,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:4">
       <c r="A17" t="s">
         <v>126</v>
       </c>
@@ -3229,20 +3329,98 @@
         <v>27314.92</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:4">
       <c r="A19" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="41" spans="7:7">
-      <c r="G41" t="s">
+    <row r="21" spans="1:4">
+      <c r="A21" s="42" t="s">
+        <v>167</v>
+      </c>
+      <c r="B21" s="42"/>
+      <c r="C21" s="42"/>
+      <c r="D21" s="42"/>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="B22" t="s">
+        <v>172</v>
+      </c>
+      <c r="C22" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" t="s">
+        <v>126</v>
+      </c>
+      <c r="B23" s="51">
+        <v>0.19370000000000001</v>
+      </c>
+      <c r="C23" s="51">
+        <v>0.68669999999999998</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" t="s">
+        <v>123</v>
+      </c>
+      <c r="B24" s="51">
+        <v>2.9700000000000001E-2</v>
+      </c>
+      <c r="C24" s="51">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="42" t="s">
+        <v>169</v>
+      </c>
+      <c r="B26" s="42"/>
+      <c r="C26" s="42"/>
+      <c r="D26" s="42"/>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="B27" t="s">
+        <v>172</v>
+      </c>
+      <c r="C27" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" t="s">
+        <v>170</v>
+      </c>
+      <c r="B28" s="51">
+        <v>0.18260000000000001</v>
+      </c>
+      <c r="C28" s="51">
+        <v>0.74919999999999998</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" t="s">
+        <v>171</v>
+      </c>
+      <c r="B29" s="51">
+        <v>1.83E-2</v>
+      </c>
+      <c r="C29" s="52">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="43" spans="7:7">
+      <c r="G43" t="s">
         <v>163</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="4">
     <mergeCell ref="A8:C8"/>
     <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A26:D26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3254,14 +3432,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{238DECEC-9B7C-4321-818D-6FCB20D4FD66}">
   <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A9" workbookViewId="0">
       <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -3270,10 +3448,10 @@
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="42" t="s">
         <v>113</v>
       </c>
-      <c r="B2" s="38"/>
+      <c r="B2" s="42"/>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="18" t="s">
@@ -3281,27 +3459,27 @@
       </c>
       <c r="B3" s="18"/>
     </row>
-    <row r="6" spans="1:7" ht="15.75">
-      <c r="A6" s="40" t="s">
+    <row r="6" spans="1:7" ht="15.6">
+      <c r="A6" s="44" t="s">
         <v>111</v>
       </c>
-      <c r="B6" s="40"/>
-      <c r="C6" s="40"/>
-      <c r="D6" s="40"/>
-      <c r="E6" s="40"/>
+      <c r="B6" s="44"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="44"/>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="19" t="s">
         <v>115</v>
       </c>
-      <c r="B7" s="41" t="s">
+      <c r="B7" s="45" t="s">
         <v>121</v>
       </c>
-      <c r="C7" s="41"/>
-      <c r="D7" s="41"/>
-      <c r="E7" s="41"/>
-      <c r="F7" s="41"/>
-      <c r="G7" s="41"/>
+      <c r="C7" s="45"/>
+      <c r="D7" s="45"/>
+      <c r="E7" s="45"/>
+      <c r="F7" s="45"/>
+      <c r="G7" s="45"/>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="19" t="s">
@@ -3343,14 +3521,14 @@
         <v>122</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="15.75">
-      <c r="A14" s="39" t="s">
+    <row r="14" spans="1:7" ht="15.6">
+      <c r="A14" s="43" t="s">
         <v>132</v>
       </c>
-      <c r="B14" s="39"/>
-      <c r="C14" s="39"/>
-      <c r="D14" s="39"/>
-      <c r="E14" s="39"/>
+      <c r="B14" s="43"/>
+      <c r="C14" s="43"/>
+      <c r="D14" s="43"/>
+      <c r="E14" s="43"/>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="19" t="s">
@@ -3400,14 +3578,14 @@
         <v>134</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="15.75">
-      <c r="A22" s="39" t="s">
+    <row r="22" spans="1:5" ht="15.6">
+      <c r="A22" s="43" t="s">
         <v>147</v>
       </c>
-      <c r="B22" s="39"/>
-      <c r="C22" s="39"/>
-      <c r="D22" s="39"/>
-      <c r="E22" s="39"/>
+      <c r="B22" s="43"/>
+      <c r="C22" s="43"/>
+      <c r="D22" s="43"/>
+      <c r="E22" s="43"/>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="19" t="s">
@@ -3457,14 +3635,14 @@
         <v>134</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="15.75">
-      <c r="A30" s="39" t="s">
+    <row r="30" spans="1:5" ht="15.6">
+      <c r="A30" s="43" t="s">
         <v>149</v>
       </c>
-      <c r="B30" s="39"/>
-      <c r="C30" s="39"/>
-      <c r="D30" s="39"/>
-      <c r="E30" s="39"/>
+      <c r="B30" s="43"/>
+      <c r="C30" s="43"/>
+      <c r="D30" s="43"/>
+      <c r="E30" s="43"/>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="19" t="s">
@@ -3530,24 +3708,24 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{604F6D97-F180-46B6-B049-574DD2A9AE37}">
-  <dimension ref="A1:I48"/>
+  <dimension ref="A1:I51"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+    <sheetView topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="A47" sqref="A47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="22.28515625" customWidth="1"/>
-    <col min="3" max="3" width="12.85546875" customWidth="1"/>
-    <col min="16382" max="16384" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.33203125" customWidth="1"/>
+    <col min="3" max="3" width="12.88671875" customWidth="1"/>
+    <col min="16382" max="16384" width="8.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="48" t="s">
         <v>139</v>
       </c>
-      <c r="B1" s="44"/>
+      <c r="B1" s="48"/>
       <c r="C1" s="31"/>
       <c r="D1" s="31"/>
       <c r="E1" s="13"/>
@@ -3555,21 +3733,21 @@
     <row r="2" spans="1:9">
       <c r="A2" s="13"/>
       <c r="B2" s="14"/>
-      <c r="C2" s="43" t="s">
+      <c r="C2" s="47" t="s">
         <v>102</v>
       </c>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="42" t="s">
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="46" t="s">
         <v>103</v>
       </c>
-      <c r="G2" s="42"/>
-      <c r="H2" s="42" t="s">
+      <c r="G2" s="46"/>
+      <c r="H2" s="46" t="s">
         <v>104</v>
       </c>
-      <c r="I2" s="42"/>
-    </row>
-    <row r="3" spans="1:9" ht="30">
+      <c r="I2" s="46"/>
+    </row>
+    <row r="3" spans="1:9" ht="28.8">
       <c r="A3" s="20" t="s">
         <v>105</v>
       </c>
@@ -3775,7 +3953,7 @@
       <c r="A20" s="16"/>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="17" t="s">
+      <c r="A21" s="35" t="s">
         <v>135</v>
       </c>
       <c r="D21" s="16"/>
@@ -3863,7 +4041,7 @@
       <c r="D25" s="16"/>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="17" t="s">
+      <c r="A26" s="33" t="s">
         <v>135</v>
       </c>
       <c r="D26" s="16"/>
@@ -3953,7 +4131,7 @@
       </c>
     </row>
     <row r="34" spans="1:5">
-      <c r="A34" s="17" t="s">
+      <c r="A34" s="34" t="s">
         <v>135</v>
       </c>
     </row>
@@ -4042,7 +4220,7 @@
       </c>
     </row>
     <row r="42" spans="1:5">
-      <c r="A42" s="17" t="s">
+      <c r="A42" s="32" t="s">
         <v>135</v>
       </c>
     </row>
@@ -4051,13 +4229,13 @@
         <v>147</v>
       </c>
       <c r="C43">
-        <v>-0.14199999999999999</v>
+        <v>-0.13400000000000001</v>
       </c>
       <c r="D43" s="16" t="s">
         <v>110</v>
       </c>
       <c r="E43">
-        <v>0.94499999999999995</v>
+        <v>0.94799999999999995</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -4065,13 +4243,13 @@
         <v>149</v>
       </c>
       <c r="C44">
-        <v>-0.24099999999999999</v>
+        <v>-0.26200000000000001</v>
       </c>
       <c r="D44" s="16" t="s">
         <v>110</v>
       </c>
       <c r="E44">
-        <v>0.90900000000000003</v>
+        <v>0.90100000000000002</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -4085,7 +4263,7 @@
         <v>110</v>
       </c>
       <c r="E45">
-        <v>0.95</v>
+        <v>0.94899999999999995</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -4093,7 +4271,7 @@
         <v>21</v>
       </c>
       <c r="C46">
-        <v>-0.128</v>
+        <v>-0.126</v>
       </c>
       <c r="D46" s="16" t="s">
         <v>110</v>
@@ -4107,13 +4285,13 @@
         <v>136</v>
       </c>
       <c r="C47">
-        <v>-9.7000000000000003E-2</v>
+        <v>-9.9000000000000005E-2</v>
       </c>
       <c r="D47" s="16" t="s">
         <v>110</v>
       </c>
       <c r="E47">
-        <v>0.91600000000000004</v>
+        <v>0.91500000000000004</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -4121,7 +4299,7 @@
         <v>5</v>
       </c>
       <c r="C48">
-        <v>4.9000000000000002E-2</v>
+        <v>4.8000000000000001E-2</v>
       </c>
       <c r="D48" s="16" t="s">
         <v>110</v>
@@ -4130,34 +4308,67 @@
         <v>1.04</v>
       </c>
     </row>
+    <row r="49" spans="1:5">
+      <c r="A49" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C49">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="D49" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="E49">
+        <v>1.014</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" s="16"/>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" s="38" t="s">
+        <v>166</v>
+      </c>
+      <c r="B51" s="38"/>
+      <c r="C51" s="38"/>
+    </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="C2:E2"/>
     <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A51:C51"/>
   </mergeCells>
   <conditionalFormatting sqref="D27:D32 D22:D24 D16:D19 D10:D13 D5:D7 G22:G24 I22:I24">
+    <cfRule type="containsText" dxfId="23" priority="7" operator="containsText" text="&lt;0.001">
+      <formula>NOT(ISERROR(SEARCH("&lt;0.001",D5)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="22" priority="8" operator="lessThan">
+      <formula>0.05</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D35:D40">
     <cfRule type="containsText" dxfId="21" priority="5" operator="containsText" text="&lt;0.001">
-      <formula>NOT(ISERROR(SEARCH("&lt;0.001",D5)))</formula>
+      <formula>NOT(ISERROR(SEARCH("&lt;0.001",D35)))</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="20" priority="6" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D35:D40">
+  <conditionalFormatting sqref="D43:D48">
     <cfRule type="containsText" dxfId="19" priority="3" operator="containsText" text="&lt;0.001">
-      <formula>NOT(ISERROR(SEARCH("&lt;0.001",D35)))</formula>
+      <formula>NOT(ISERROR(SEARCH("&lt;0.001",D43)))</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="18" priority="4" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D43:D48">
-    <cfRule type="containsText" dxfId="17" priority="1" operator="containsText" text="&lt;0.001">
-      <formula>NOT(ISERROR(SEARCH("&lt;0.001",D43)))</formula>
+  <conditionalFormatting sqref="D49">
+    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="&lt;0.001">
+      <formula>NOT(ISERROR(SEARCH("&lt;0.001",D49)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4171,18 +4382,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8743118-3A32-47C7-84AD-45E2B14B31EA}">
   <dimension ref="A1:H29"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="30.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.7109375" customWidth="1"/>
-    <col min="3" max="3" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.6640625" customWidth="1"/>
+    <col min="3" max="3" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -4193,21 +4406,21 @@
       <c r="C1" s="25"/>
       <c r="D1" s="25"/>
     </row>
-    <row r="2" spans="1:8" ht="22.15" customHeight="1">
-      <c r="C2" s="45" t="s">
+    <row r="2" spans="1:8" ht="22.2" customHeight="1">
+      <c r="C2" s="49" t="s">
         <v>102</v>
       </c>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45" t="s">
+      <c r="D2" s="49"/>
+      <c r="E2" s="49" t="s">
         <v>103</v>
       </c>
-      <c r="F2" s="45"/>
-      <c r="G2" s="45" t="s">
+      <c r="F2" s="49"/>
+      <c r="G2" s="49" t="s">
         <v>104</v>
       </c>
-      <c r="H2" s="45"/>
-    </row>
-    <row r="3" spans="1:8" ht="22.15" customHeight="1">
+      <c r="H2" s="49"/>
+    </row>
+    <row r="3" spans="1:8" ht="22.2" customHeight="1">
       <c r="A3" s="17" t="s">
         <v>135</v>
       </c>
@@ -4560,68 +4773,68 @@
     <mergeCell ref="G2:H2"/>
   </mergeCells>
   <conditionalFormatting sqref="D4:D8 F4:F8 H4:H8">
-    <cfRule type="containsText" dxfId="15" priority="14" operator="containsText" text="&lt;0.001">
+    <cfRule type="containsText" dxfId="17" priority="14" operator="containsText" text="&lt;0.001">
       <formula>NOT(ISERROR(SEARCH("&lt;0.001",D4)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="16" operator="lessThan">
+    <cfRule type="cellIs" dxfId="16" priority="16" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F5">
-    <cfRule type="containsText" dxfId="13" priority="15" operator="containsText" text="&lt;0.001">
+    <cfRule type="containsText" dxfId="15" priority="15" operator="containsText" text="&lt;0.001">
       <formula>NOT(ISERROR(SEARCH("&lt;0.001",F5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11">
-    <cfRule type="containsText" dxfId="12" priority="12" operator="containsText" text="&lt;0.001">
+    <cfRule type="containsText" dxfId="14" priority="12" operator="containsText" text="&lt;0.001">
       <formula>NOT(ISERROR(SEARCH("&lt;0.001",D11)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="13" operator="lessThan">
+    <cfRule type="cellIs" dxfId="13" priority="13" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13">
-    <cfRule type="containsText" dxfId="10" priority="10" operator="containsText" text="&lt;0.001">
+    <cfRule type="containsText" dxfId="12" priority="10" operator="containsText" text="&lt;0.001">
       <formula>NOT(ISERROR(SEARCH("&lt;0.001",D13)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="11" operator="lessThan">
+    <cfRule type="cellIs" dxfId="11" priority="11" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D14">
-    <cfRule type="containsText" dxfId="8" priority="8" operator="containsText" text="&lt;0.001">
+    <cfRule type="containsText" dxfId="10" priority="8" operator="containsText" text="&lt;0.001">
       <formula>NOT(ISERROR(SEARCH("&lt;0.001",D14)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="9" operator="lessThan">
+    <cfRule type="cellIs" dxfId="9" priority="9" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D15">
-    <cfRule type="containsText" dxfId="6" priority="6" operator="containsText" text="&lt;0.001">
+    <cfRule type="containsText" dxfId="8" priority="6" operator="containsText" text="&lt;0.001">
       <formula>NOT(ISERROR(SEARCH("&lt;0.001",D15)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="7" operator="lessThan">
+    <cfRule type="cellIs" dxfId="7" priority="7" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D16">
-    <cfRule type="containsText" dxfId="4" priority="4" operator="containsText" text="&lt;0.001">
+    <cfRule type="containsText" dxfId="6" priority="4" operator="containsText" text="&lt;0.001">
       <formula>NOT(ISERROR(SEARCH("&lt;0.001",D16)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="5" operator="lessThan">
+    <cfRule type="cellIs" dxfId="5" priority="5" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="4" priority="3" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D19:D29">
-    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="&lt;0.001">
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="&lt;0.001">
       <formula>NOT(ISERROR(SEARCH("&lt;0.001",D19)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4635,14 +4848,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{062C27E3-330B-4BAF-8F05-331C962A113B}">
   <dimension ref="A1:N13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+    <sheetView topLeftCell="G20" workbookViewId="0">
+      <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="29" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
@@ -4657,10 +4870,10 @@
       <c r="C2" s="27" t="s">
         <v>146</v>
       </c>
-      <c r="M2" s="46" t="s">
+      <c r="M2" s="50" t="s">
         <v>159</v>
       </c>
-      <c r="N2" s="46"/>
+      <c r="N2" s="50"/>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="26" t="s">
@@ -4742,6 +4955,9 @@
       </c>
       <c r="C9">
         <v>4.5780000000000001E-2</v>
+      </c>
+      <c r="L9" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -4784,4 +5000,19 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D02D3D8-0EAB-4298-BFFB-B8A569280EC8}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H27" sqref="H27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/NLS/Immigration Dictionary.xlsx
+++ b/NLS/Immigration Dictionary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2d474aaa2186e9c7/CSU Classes/Consulting/NLS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="961" documentId="14_{FDBBC5D5-DD1B-4078-B5B4-1BF14B832747}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{85BA0332-752E-436C-ACF2-803E7577DF15}"/>
+  <xr:revisionPtr revIDLastSave="985" documentId="14_{FDBBC5D5-DD1B-4078-B5B4-1BF14B832747}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{D2B4DA57-1793-4640-B376-FD2B8C8316FA}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="6" xr2:uid="{2096B911-1958-45C3-8B1A-4C0F362183A1}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{2096B911-1958-45C3-8B1A-4C0F362183A1}"/>
   </bookViews>
   <sheets>
     <sheet name="Dictionary" sheetId="1" r:id="rId1"/>
@@ -817,7 +817,7 @@
     <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -896,6 +896,7 @@
     <xf numFmtId="0" fontId="6" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -941,8 +942,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Bad" xfId="3" builtinId="27"/>
@@ -2608,8 +2607,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{920464C5-DCD3-4FFB-8D80-CA80DEE31D7B}">
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2623,15 +2622,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15" thickBot="1">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="D1" s="38" t="s">
+      <c r="B1" s="38"/>
+      <c r="D1" s="39" t="s">
         <v>49</v>
       </c>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
     </row>
     <row r="2" spans="1:6" ht="15" thickBot="1">
       <c r="A2" s="1" t="s">
@@ -2651,14 +2650,14 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="39" t="s">
+      <c r="A3" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="40"/>
-      <c r="C3" s="40"/>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="41"/>
+      <c r="B3" s="41"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="42"/>
     </row>
     <row r="4" spans="1:6" ht="28.8">
       <c r="A4" s="4" t="s">
@@ -2786,14 +2785,14 @@
       <c r="F14" s="4"/>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="39" t="s">
+      <c r="A15" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="B15" s="40"/>
-      <c r="C15" s="40"/>
-      <c r="D15" s="40"/>
-      <c r="E15" s="40"/>
-      <c r="F15" s="41"/>
+      <c r="B15" s="41"/>
+      <c r="C15" s="41"/>
+      <c r="D15" s="41"/>
+      <c r="E15" s="41"/>
+      <c r="F15" s="42"/>
     </row>
     <row r="16" spans="1:6" ht="28.8">
       <c r="A16" s="4" t="s">
@@ -2951,14 +2950,14 @@
       </c>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="39" t="s">
+      <c r="A27" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="B27" s="40"/>
-      <c r="C27" s="40"/>
-      <c r="D27" s="40"/>
-      <c r="E27" s="40"/>
-      <c r="F27" s="41"/>
+      <c r="B27" s="41"/>
+      <c r="C27" s="41"/>
+      <c r="D27" s="41"/>
+      <c r="E27" s="41"/>
+      <c r="F27" s="42"/>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="8" t="s">
@@ -2984,7 +2983,7 @@
       <c r="E29" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="F29" s="36" t="s">
+      <c r="F29" s="37" t="s">
         <v>36</v>
       </c>
     </row>
@@ -2993,7 +2992,7 @@
         <v>35</v>
       </c>
       <c r="E30" s="4"/>
-      <c r="F30" s="36"/>
+      <c r="F30" s="37"/>
     </row>
     <row r="31" spans="1:6" ht="28.8">
       <c r="D31" s="4" t="s">
@@ -3099,8 +3098,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE375654-8A33-4171-B7F2-45BB81BA18E9}">
   <dimension ref="A1:G43"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="G43" sqref="G43"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3114,7 +3113,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" t="s">
+      <c r="A1" s="15" t="s">
         <v>137</v>
       </c>
     </row>
@@ -3223,11 +3222,11 @@
       <c r="F7" s="11"/>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="42" t="s">
+      <c r="A8" s="43" t="s">
         <v>101</v>
       </c>
-      <c r="B8" s="42"/>
-      <c r="C8" s="42"/>
+      <c r="B8" s="43"/>
+      <c r="C8" s="43"/>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="12" t="s">
@@ -3300,12 +3299,12 @@
       </c>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="42" t="s">
+      <c r="A15" s="43" t="s">
         <v>125</v>
       </c>
-      <c r="B15" s="42"/>
-      <c r="C15" s="42"/>
-      <c r="D15" s="42"/>
+      <c r="B15" s="43"/>
+      <c r="C15" s="43"/>
+      <c r="D15" s="43"/>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" t="s">
@@ -3335,12 +3334,12 @@
       </c>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="42" t="s">
+      <c r="A21" s="43" t="s">
         <v>167</v>
       </c>
-      <c r="B21" s="42"/>
-      <c r="C21" s="42"/>
-      <c r="D21" s="42"/>
+      <c r="B21" s="43"/>
+      <c r="C21" s="43"/>
+      <c r="D21" s="43"/>
     </row>
     <row r="22" spans="1:4">
       <c r="B22" t="s">
@@ -3354,31 +3353,31 @@
       <c r="A23" t="s">
         <v>126</v>
       </c>
-      <c r="B23" s="51">
-        <v>0.19370000000000001</v>
-      </c>
-      <c r="C23" s="51">
-        <v>0.68669999999999998</v>
+      <c r="B23" s="36">
+        <v>0.22</v>
+      </c>
+      <c r="C23" s="36">
+        <v>0.78</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
         <v>123</v>
       </c>
-      <c r="B24" s="51">
-        <v>2.9700000000000001E-2</v>
-      </c>
-      <c r="C24" s="51">
-        <v>0.09</v>
+      <c r="B24" s="36">
+        <v>0.24809999999999999</v>
+      </c>
+      <c r="C24" s="36">
+        <v>0.75190000000000001</v>
       </c>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" s="42" t="s">
+      <c r="A26" s="43" t="s">
         <v>169</v>
       </c>
-      <c r="B26" s="42"/>
-      <c r="C26" s="42"/>
-      <c r="D26" s="42"/>
+      <c r="B26" s="43"/>
+      <c r="C26" s="43"/>
+      <c r="D26" s="43"/>
     </row>
     <row r="27" spans="1:4">
       <c r="B27" t="s">
@@ -3392,22 +3391,22 @@
       <c r="A28" t="s">
         <v>170</v>
       </c>
-      <c r="B28" s="51">
-        <v>0.18260000000000001</v>
-      </c>
-      <c r="C28" s="51">
-        <v>0.74919999999999998</v>
+      <c r="B28" s="36">
+        <v>0.19600000000000001</v>
+      </c>
+      <c r="C28" s="36">
+        <v>0.80400000000000005</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
         <v>171</v>
       </c>
-      <c r="B29" s="51">
-        <v>1.83E-2</v>
-      </c>
-      <c r="C29" s="52">
-        <v>0.05</v>
+      <c r="B29" s="36">
+        <v>0.26819999999999999</v>
+      </c>
+      <c r="C29" s="36">
+        <v>0.73180000000000001</v>
       </c>
     </row>
     <row r="43" spans="7:7">
@@ -3432,14 +3431,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{238DECEC-9B7C-4321-818D-6FCB20D4FD66}">
   <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -3448,10 +3447,10 @@
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="42" t="s">
+      <c r="A2" s="43" t="s">
         <v>113</v>
       </c>
-      <c r="B2" s="42"/>
+      <c r="B2" s="43"/>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="18" t="s">
@@ -3460,26 +3459,26 @@
       <c r="B3" s="18"/>
     </row>
     <row r="6" spans="1:7" ht="15.6">
-      <c r="A6" s="44" t="s">
+      <c r="A6" s="45" t="s">
         <v>111</v>
       </c>
-      <c r="B6" s="44"/>
-      <c r="C6" s="44"/>
-      <c r="D6" s="44"/>
-      <c r="E6" s="44"/>
+      <c r="B6" s="45"/>
+      <c r="C6" s="45"/>
+      <c r="D6" s="45"/>
+      <c r="E6" s="45"/>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="19" t="s">
         <v>115</v>
       </c>
-      <c r="B7" s="45" t="s">
+      <c r="B7" s="46" t="s">
         <v>121</v>
       </c>
-      <c r="C7" s="45"/>
-      <c r="D7" s="45"/>
-      <c r="E7" s="45"/>
-      <c r="F7" s="45"/>
-      <c r="G7" s="45"/>
+      <c r="C7" s="46"/>
+      <c r="D7" s="46"/>
+      <c r="E7" s="46"/>
+      <c r="F7" s="46"/>
+      <c r="G7" s="46"/>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="19" t="s">
@@ -3522,13 +3521,13 @@
       </c>
     </row>
     <row r="14" spans="1:7" ht="15.6">
-      <c r="A14" s="43" t="s">
+      <c r="A14" s="44" t="s">
         <v>132</v>
       </c>
-      <c r="B14" s="43"/>
-      <c r="C14" s="43"/>
-      <c r="D14" s="43"/>
-      <c r="E14" s="43"/>
+      <c r="B14" s="44"/>
+      <c r="C14" s="44"/>
+      <c r="D14" s="44"/>
+      <c r="E14" s="44"/>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="19" t="s">
@@ -3579,13 +3578,13 @@
       </c>
     </row>
     <row r="22" spans="1:5" ht="15.6">
-      <c r="A22" s="43" t="s">
+      <c r="A22" s="44" t="s">
         <v>147</v>
       </c>
-      <c r="B22" s="43"/>
-      <c r="C22" s="43"/>
-      <c r="D22" s="43"/>
-      <c r="E22" s="43"/>
+      <c r="B22" s="44"/>
+      <c r="C22" s="44"/>
+      <c r="D22" s="44"/>
+      <c r="E22" s="44"/>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="19" t="s">
@@ -3636,13 +3635,13 @@
       </c>
     </row>
     <row r="30" spans="1:5" ht="15.6">
-      <c r="A30" s="43" t="s">
+      <c r="A30" s="44" t="s">
         <v>149</v>
       </c>
-      <c r="B30" s="43"/>
-      <c r="C30" s="43"/>
-      <c r="D30" s="43"/>
-      <c r="E30" s="43"/>
+      <c r="B30" s="44"/>
+      <c r="C30" s="44"/>
+      <c r="D30" s="44"/>
+      <c r="E30" s="44"/>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="19" t="s">
@@ -3710,8 +3709,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{604F6D97-F180-46B6-B049-574DD2A9AE37}">
   <dimension ref="A1:I51"/>
   <sheetViews>
-    <sheetView topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="A47" sqref="A47"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="C52" sqref="C52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3722,10 +3721,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="49" t="s">
         <v>139</v>
       </c>
-      <c r="B1" s="48"/>
+      <c r="B1" s="49"/>
       <c r="C1" s="31"/>
       <c r="D1" s="31"/>
       <c r="E1" s="13"/>
@@ -3733,19 +3732,19 @@
     <row r="2" spans="1:9">
       <c r="A2" s="13"/>
       <c r="B2" s="14"/>
-      <c r="C2" s="47" t="s">
+      <c r="C2" s="48" t="s">
         <v>102</v>
       </c>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="46" t="s">
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="47" t="s">
         <v>103</v>
       </c>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46" t="s">
+      <c r="G2" s="47"/>
+      <c r="H2" s="47" t="s">
         <v>104</v>
       </c>
-      <c r="I2" s="46"/>
+      <c r="I2" s="47"/>
     </row>
     <row r="3" spans="1:9" ht="28.8">
       <c r="A3" s="20" t="s">
@@ -4326,11 +4325,11 @@
       <c r="A50" s="16"/>
     </row>
     <row r="51" spans="1:5">
-      <c r="A51" s="38" t="s">
+      <c r="A51" s="39" t="s">
         <v>166</v>
       </c>
-      <c r="B51" s="38"/>
-      <c r="C51" s="38"/>
+      <c r="B51" s="39"/>
+      <c r="C51" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -4365,10 +4364,10 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D49">
-    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="&lt;0.001">
+    <cfRule type="containsText" dxfId="17" priority="1" operator="containsText" text="&lt;0.001">
       <formula>NOT(ISERROR(SEARCH("&lt;0.001",D49)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="16" priority="2" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4407,18 +4406,18 @@
       <c r="D1" s="25"/>
     </row>
     <row r="2" spans="1:8" ht="22.2" customHeight="1">
-      <c r="C2" s="49" t="s">
+      <c r="C2" s="50" t="s">
         <v>102</v>
       </c>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49" t="s">
+      <c r="D2" s="50"/>
+      <c r="E2" s="50" t="s">
         <v>103</v>
       </c>
-      <c r="F2" s="49"/>
-      <c r="G2" s="49" t="s">
+      <c r="F2" s="50"/>
+      <c r="G2" s="50" t="s">
         <v>104</v>
       </c>
-      <c r="H2" s="49"/>
+      <c r="H2" s="50"/>
     </row>
     <row r="3" spans="1:8" ht="22.2" customHeight="1">
       <c r="A3" s="17" t="s">
@@ -4773,68 +4772,68 @@
     <mergeCell ref="G2:H2"/>
   </mergeCells>
   <conditionalFormatting sqref="D4:D8 F4:F8 H4:H8">
-    <cfRule type="containsText" dxfId="17" priority="14" operator="containsText" text="&lt;0.001">
+    <cfRule type="containsText" dxfId="15" priority="14" operator="containsText" text="&lt;0.001">
       <formula>NOT(ISERROR(SEARCH("&lt;0.001",D4)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="16" operator="lessThan">
+    <cfRule type="cellIs" dxfId="14" priority="16" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F5">
-    <cfRule type="containsText" dxfId="15" priority="15" operator="containsText" text="&lt;0.001">
+    <cfRule type="containsText" dxfId="13" priority="15" operator="containsText" text="&lt;0.001">
       <formula>NOT(ISERROR(SEARCH("&lt;0.001",F5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11">
-    <cfRule type="containsText" dxfId="14" priority="12" operator="containsText" text="&lt;0.001">
+    <cfRule type="containsText" dxfId="12" priority="12" operator="containsText" text="&lt;0.001">
       <formula>NOT(ISERROR(SEARCH("&lt;0.001",D11)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="13" operator="lessThan">
+    <cfRule type="cellIs" dxfId="11" priority="13" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13">
-    <cfRule type="containsText" dxfId="12" priority="10" operator="containsText" text="&lt;0.001">
+    <cfRule type="containsText" dxfId="10" priority="10" operator="containsText" text="&lt;0.001">
       <formula>NOT(ISERROR(SEARCH("&lt;0.001",D13)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="11" operator="lessThan">
+    <cfRule type="cellIs" dxfId="9" priority="11" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D14">
-    <cfRule type="containsText" dxfId="10" priority="8" operator="containsText" text="&lt;0.001">
+    <cfRule type="containsText" dxfId="8" priority="8" operator="containsText" text="&lt;0.001">
       <formula>NOT(ISERROR(SEARCH("&lt;0.001",D14)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="9" operator="lessThan">
+    <cfRule type="cellIs" dxfId="7" priority="9" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D15">
-    <cfRule type="containsText" dxfId="8" priority="6" operator="containsText" text="&lt;0.001">
+    <cfRule type="containsText" dxfId="6" priority="6" operator="containsText" text="&lt;0.001">
       <formula>NOT(ISERROR(SEARCH("&lt;0.001",D15)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="7" operator="lessThan">
+    <cfRule type="cellIs" dxfId="5" priority="7" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D16">
-    <cfRule type="containsText" dxfId="6" priority="4" operator="containsText" text="&lt;0.001">
+    <cfRule type="containsText" dxfId="4" priority="4" operator="containsText" text="&lt;0.001">
       <formula>NOT(ISERROR(SEARCH("&lt;0.001",D16)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="5" operator="lessThan">
+    <cfRule type="cellIs" dxfId="3" priority="5" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12">
-    <cfRule type="cellIs" dxfId="4" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D19:D29">
-    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="&lt;0.001">
+    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="&lt;0.001">
       <formula>NOT(ISERROR(SEARCH("&lt;0.001",D19)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4848,7 +4847,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{062C27E3-330B-4BAF-8F05-331C962A113B}">
   <dimension ref="A1:N13"/>
   <sheetViews>
-    <sheetView topLeftCell="G20" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
@@ -4870,10 +4869,10 @@
       <c r="C2" s="27" t="s">
         <v>146</v>
       </c>
-      <c r="M2" s="50" t="s">
+      <c r="M2" s="51" t="s">
         <v>159</v>
       </c>
-      <c r="N2" s="50"/>
+      <c r="N2" s="51"/>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="26" t="s">
@@ -5006,7 +5005,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D02D3D8-0EAB-4298-BFFB-B8A569280EC8}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>

--- a/NLS/Immigration Dictionary.xlsx
+++ b/NLS/Immigration Dictionary.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -3710,7 +3710,7 @@
   <dimension ref="A1:I51"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="C52" sqref="C52"/>
+      <selection activeCell="A51" sqref="A51:C51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
